--- a/KWI-RoboChallange_Rangliste_FS2025.xlsx
+++ b/KWI-RoboChallange_Rangliste_FS2025.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kwischule-my.sharepoint.com/personal/camilla_gretsch_kwi_ch/Documents/2.Klasse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillagretsch/KWI-RoboChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{2304E2A8-C9F5-F14F-9A84-93B3D052A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47F1EEB-5D80-6B47-A7BF-89090D48872E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB691F0-CA54-4C4B-8F92-B9EABE9EFA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linienfolger" sheetId="10" r:id="rId1"/>
     <sheet name="Move-it-over" sheetId="11" r:id="rId2"/>
     <sheet name="RoboBall" sheetId="12" r:id="rId3"/>
-    <sheet name="Rangliste" sheetId="13" r:id="rId4"/>
+    <sheet name="Teams" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
   <si>
     <t>Gruppennummer</t>
   </si>
@@ -622,7 +622,7 @@
   <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,9 +644,7 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -658,9 +656,7 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -672,9 +668,7 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -686,9 +680,7 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -700,9 +692,7 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -714,9 +704,7 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -728,9 +716,7 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -742,9 +728,7 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -756,9 +740,7 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -770,9 +752,7 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -784,9 +764,7 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -798,9 +776,7 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -812,9 +788,7 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -826,9 +800,7 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -840,9 +812,7 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -854,9 +824,7 @@
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -868,9 +836,7 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -882,9 +848,7 @@
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -896,9 +860,7 @@
       <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -910,9 +872,7 @@
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -924,9 +884,7 @@
       <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -938,9 +896,7 @@
       <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -952,9 +908,7 @@
       <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -966,9 +920,7 @@
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -980,9 +932,7 @@
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -994,9 +944,7 @@
       <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1008,9 +956,7 @@
       <c r="D27" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1022,9 +968,7 @@
       <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1036,9 +980,7 @@
       <c r="D29" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1050,9 +992,7 @@
       <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -1064,9 +1004,7 @@
       <c r="D31" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -1078,9 +1016,7 @@
       <c r="D32" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -1092,9 +1028,7 @@
       <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -1106,9 +1040,7 @@
       <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -1120,9 +1052,7 @@
       <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -1134,9 +1064,7 @@
       <c r="D36" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -1148,9 +1076,7 @@
       <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -1162,9 +1088,7 @@
       <c r="D38" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -1176,9 +1100,7 @@
       <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -1190,9 +1112,7 @@
       <c r="D40" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -1204,9 +1124,7 @@
       <c r="D41" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -1218,9 +1136,7 @@
       <c r="D42" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -1232,9 +1148,7 @@
       <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -1246,9 +1160,7 @@
       <c r="D44" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -1260,9 +1172,7 @@
       <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -1274,9 +1184,7 @@
       <c r="D46" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -1288,9 +1196,7 @@
       <c r="D47" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -1302,9 +1208,7 @@
       <c r="D48" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
@@ -1316,9 +1220,7 @@
       <c r="D49" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -1330,9 +1232,7 @@
       <c r="D50" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
@@ -1344,9 +1244,7 @@
       <c r="D51" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -1358,9 +1256,7 @@
       <c r="D52" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
@@ -1372,9 +1268,7 @@
       <c r="D53" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -1386,9 +1280,7 @@
       <c r="D54" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -1400,9 +1292,7 @@
       <c r="D55" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
@@ -1414,9 +1304,7 @@
       <c r="D56" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -1428,9 +1316,7 @@
       <c r="D57" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -1442,9 +1328,7 @@
       <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
@@ -1456,9 +1340,7 @@
       <c r="D59" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
@@ -1470,9 +1352,7 @@
       <c r="D60" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
@@ -1484,9 +1364,7 @@
       <c r="D61" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
@@ -1498,9 +1376,7 @@
       <c r="D62" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
@@ -1512,9 +1388,7 @@
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
@@ -1526,9 +1400,7 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
@@ -1540,9 +1412,7 @@
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
@@ -1554,9 +1424,7 @@
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
@@ -1568,9 +1436,7 @@
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
@@ -1582,9 +1448,7 @@
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -1596,9 +1460,7 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -1610,9 +1472,7 @@
       <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -1624,9 +1484,7 @@
       <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -1638,9 +1496,7 @@
       <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -1652,9 +1508,7 @@
       <c r="D73" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -1666,9 +1520,7 @@
       <c r="D74" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -1680,9 +1532,7 @@
       <c r="D75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -1694,9 +1544,7 @@
       <c r="D76" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -1708,9 +1556,7 @@
       <c r="D77" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -1722,9 +1568,7 @@
       <c r="D78" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -1736,9 +1580,7 @@
       <c r="D79" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="G79">
         <f>ROUND(H79,2)</f>
         <v>9.01</v>
@@ -1757,9 +1599,7 @@
       <c r="D80" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -1771,9 +1611,7 @@
       <c r="D81" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -1785,9 +1623,7 @@
       <c r="D82" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -1799,9 +1635,7 @@
       <c r="D83" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -1813,9 +1647,7 @@
       <c r="D84" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -1827,9 +1659,7 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -1841,9 +1671,7 @@
       <c r="D86" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -1855,9 +1683,7 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -1869,9 +1695,7 @@
       <c r="D88" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -1883,9 +1707,7 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -1897,9 +1719,7 @@
       <c r="D90" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -1911,9 +1731,7 @@
       <c r="D91" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -1925,9 +1743,7 @@
       <c r="D92" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
@@ -1939,9 +1755,7 @@
       <c r="D93" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
@@ -1953,9 +1767,7 @@
       <c r="D94" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E95" s="1"/>
@@ -2274,14 +2086,250 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009128B-BC04-AE43-96E7-DEE798181085}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/KWI-RoboChallange_Rangliste_FS2025.xlsx
+++ b/KWI-RoboChallange_Rangliste_FS2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillagretsch/KWI-RoboChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB691F0-CA54-4C4B-8F92-B9EABE9EFA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB111CFF-A3C6-834F-83DA-BA2E6E5396A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linienfolger" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="61">
   <si>
     <t>Gruppennummer</t>
   </si>
@@ -228,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +241,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79766E1-4E1A-2E4C-A02E-F492E4998716}">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A60" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1402,7 +1408,7 @@
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -1414,7 +1420,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -1426,7 +1432,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -1438,7 +1444,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -1450,7 +1456,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -1462,7 +1468,7 @@
       </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -1474,7 +1480,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -1486,7 +1492,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -1498,7 +1504,7 @@
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -1510,7 +1516,7 @@
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -1522,7 +1528,7 @@
       </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -1534,7 +1540,7 @@
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -1546,7 +1552,7 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -1558,7 +1564,7 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -1570,7 +1576,7 @@
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -1581,15 +1587,8 @@
         <v>7</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="G79">
-        <f>ROUND(H79,2)</f>
-        <v>9.01</v>
-      </c>
-      <c r="H79">
-        <v>9.0060000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -2086,275 +2085,397 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009128B-BC04-AE43-96E7-DEE798181085}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8809bee8-42c8-488a-8141-8f04d619b36c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1bcd6380-bda3-48d2-8fbc-3eb2b8842e9c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001FDB85367C20A4499C08F4CA4D5990E0" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f1186bdb3132fe582674e069672a02a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bcd6380-bda3-48d2-8fbc-3eb2b8842e9c" xmlns:ns3="8809bee8-42c8-488a-8141-8f04d619b36c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f5a61cc3de785e4f469d070c02522d6" ns2:_="" ns3:_="">
     <xsd:import namespace="1bcd6380-bda3-48d2-8fbc-3eb2b8842e9c"/>
@@ -2555,32 +2676,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33E82EA-34B8-478E-90E7-7586E722C072}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1bcd6380-bda3-48d2-8fbc-3eb2b8842e9c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8809bee8-42c8-488a-8141-8f04d619b36c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7263C-2DE4-4511-A0DE-FB7A876B2661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8809bee8-42c8-488a-8141-8f04d619b36c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1bcd6380-bda3-48d2-8fbc-3eb2b8842e9c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B06DE4C6-846C-49BD-9837-AEFEE3EFACF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2598,4 +2714,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7263C-2DE4-4511-A0DE-FB7A876B2661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33E82EA-34B8-478E-90E7-7586E722C072}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1bcd6380-bda3-48d2-8fbc-3eb2b8842e9c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8809bee8-42c8-488a-8141-8f04d619b36c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/KWI-RoboChallange_Rangliste_FS2025.xlsx
+++ b/KWI-RoboChallange_Rangliste_FS2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillagretsch/KWI-RoboChallenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgh\KWI-RoboChallenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6643DBBE-1CDA-744C-B02C-FB4C6EAF6070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E651BB5-84E5-4194-920E-7E375ED0D3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linienfolger-Spielplan" sheetId="10" r:id="rId1"/>
@@ -663,12 +663,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,12 +672,18 @@
     <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1021,13 +1021,13 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -2155,256 +2155,256 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="1"/>
     </row>
   </sheetData>
@@ -2420,13 +2420,13 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" cm="1">
         <f t="array" ref="A2:C94">_xlfn._xlws.SORT('Linienfolger-Spielplan'!A2:C94,2,1)</f>
         <v>42</v>
@@ -2450,7 +2450,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>14</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>87</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>89</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>49</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>90</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>46</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>48</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>82</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>32</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>76</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>92</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>68</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>81</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>33</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>84</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>83</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>85</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>75</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>91</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>88</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>64</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>21</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>20</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>16</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>65</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>55</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>17</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>29</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>31</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>35</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>71</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>8</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>36</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>57</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>86</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>59</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>67</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>51</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>9</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>72</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>10</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>6</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>4</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>62</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>30</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>93</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>61</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>37</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>23</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>94</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>60</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>50</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>52</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>53</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>58</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>27</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>70</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>66</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>69</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>2g</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>39</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>26</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>5</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>28</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>73</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>74</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>77</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>78</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>79</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>80</v>
       </c>
@@ -3471,19 +3471,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E431A25-7996-7A46-826A-C481A5ABF70E}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="20" t="s">
         <v>56</v>
@@ -3505,31 +3505,31 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="11" t="s">
         <v>59</v>
@@ -3590,7 +3590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f>IF(E4 &gt; F4, 1, "")</f>
         <v/>
@@ -3664,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A14" si="0">IF(E5 &gt; F5, 1, "")</f>
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3804,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3814,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="14">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
@@ -3841,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N7" s="15">
         <v>2</v>
@@ -3874,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3944,7 +3944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4014,12 +4014,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -4048,7 +4048,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="24" t="s">
         <v>65</v>
       </c>
       <c r="L10" s="14" t="s">
@@ -4088,17 +4088,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="15">
         <v>5</v>
@@ -4120,12 +4120,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="M11" s="14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" s="15">
         <v>5</v>
@@ -4158,12 +4158,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
@@ -4190,7 +4190,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="14" t="s">
         <v>37</v>
       </c>
@@ -4228,12 +4228,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="14" t="s">
         <v>23</v>
       </c>
@@ -4260,7 +4260,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="14" t="s">
         <v>23</v>
       </c>
@@ -4298,12 +4298,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -4330,7 +4330,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="14" t="s">
         <v>30</v>
       </c>
@@ -4368,17 +4368,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(E15 &gt; F15, 1, "")</f>
         <v/>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="15">
         <v>5</v>
@@ -4400,7 +4400,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
@@ -4423,7 +4423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="20" t="s">
         <v>66</v>
@@ -4527,28 +4527,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="10"/>
       <c r="T19" t="s">
         <v>41</v>
@@ -4565,7 +4565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="11" t="s">
         <v>59</v>
@@ -4627,7 +4627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(E21 &gt; F21, 1, "")</f>
         <v/>
@@ -4701,7 +4701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" ref="A22:A32" si="9">IF(E22 &gt; F22, 1, "")</f>
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -4790,7 +4790,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="14">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>4</v>
@@ -4817,7 +4817,7 @@
         <v>9</v>
       </c>
       <c r="P23" s="14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="14" t="s">
         <v>4</v>
@@ -4841,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -4911,7 +4911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -4981,7 +4981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5051,12 +5051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -5072,7 +5072,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>4</v>
@@ -5085,7 +5085,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="24" t="s">
         <v>68</v>
       </c>
       <c r="L27" s="14" t="s">
@@ -5101,7 +5101,7 @@
         <v>10</v>
       </c>
       <c r="P27" s="16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="14" t="s">
         <v>4</v>
@@ -5125,12 +5125,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="14" t="s">
         <v>17</v>
       </c>
@@ -5157,7 +5157,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K28" s="27"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="14" t="s">
         <v>17</v>
       </c>
@@ -5195,12 +5195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="14" t="s">
         <v>37</v>
       </c>
@@ -5227,7 +5227,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K29" s="27"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="14" t="s">
         <v>37</v>
       </c>
@@ -5265,12 +5265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="14" t="s">
         <v>5</v>
       </c>
@@ -5297,7 +5297,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K30" s="27"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="14" t="s">
         <v>5</v>
       </c>
@@ -5335,12 +5335,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="14" t="s">
         <v>30</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>4</v>
@@ -5367,7 +5367,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K31" s="27"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="14" t="s">
         <v>41</v>
       </c>
@@ -5405,12 +5405,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -5437,7 +5437,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="26"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5517,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="U34" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V34">
         <f t="shared" si="4"/>
@@ -5528,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="20" t="s">
         <v>69</v>
@@ -5553,7 +5553,7 @@
         <v>4</v>
       </c>
       <c r="U35" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V35">
         <f t="shared" si="4"/>
@@ -5564,34 +5564,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
       <c r="R36" s="10"/>
       <c r="T36" t="s">
         <v>4</v>
       </c>
       <c r="U36" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V36">
         <f t="shared" si="4"/>
@@ -5602,7 +5602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -5653,7 +5653,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V37">
         <f t="shared" si="4"/>
@@ -5664,7 +5664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
         <f>IF(E38 &gt; F38, 1, "")</f>
         <v/>
@@ -5727,7 +5727,7 @@
         <v>4</v>
       </c>
       <c r="U38" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V38">
         <f t="shared" si="4"/>
@@ -5738,7 +5738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" ref="A39:A48" si="12">IF(E39 &gt; F39, 1, "")</f>
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5827,7 +5827,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="14">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>4</v>
@@ -5854,7 +5854,7 @@
         <v>9</v>
       </c>
       <c r="P40" s="14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q40" s="14" t="s">
         <v>4</v>
@@ -5878,7 +5878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5948,7 +5948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6018,7 +6018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6088,12 +6088,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="14" t="s">
@@ -6109,7 +6109,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>4</v>
@@ -6122,7 +6122,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="28" t="s">
         <v>71</v>
       </c>
       <c r="L44" s="14" t="s">
@@ -6138,7 +6138,7 @@
         <v>10</v>
       </c>
       <c r="P44" s="14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q44" s="14" t="s">
         <v>4</v>
@@ -6162,7 +6162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6232,7 +6232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6302,7 +6302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6372,7 +6372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -6391,7 +6391,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>4</v>
@@ -6442,7 +6442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
         <f>IF(E49 &gt; F49, 1, "")</f>
         <v/>
@@ -6497,7 +6497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -6517,7 +6517,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6537,7 +6537,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="1:23" ht="27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A52" s="6"/>
       <c r="B52" s="20" t="s">
         <v>72</v>
@@ -6559,31 +6559,31 @@
       <c r="Q52" s="20"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="8"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="25" t="s">
+      <c r="K53" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="11" t="s">
         <v>59</v>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="str">
         <f>IF(E55 &gt; F55, 1, "")</f>
         <v/>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <f t="shared" ref="A56:A65" si="17">IF(E56 &gt; F56, 1, "")</f>
         <v>1</v>
@@ -6747,7 +6747,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -6813,7 +6813,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="14">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" s="15">
         <v>2</v>
@@ -6840,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="M58" s="14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N58" s="15">
         <v>2</v>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -6915,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -6971,12 +6971,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -7005,14 +7005,14 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K61" s="24" t="s">
+      <c r="K61" s="28" t="s">
         <v>74</v>
       </c>
       <c r="L61" s="14" t="s">
         <v>4</v>
       </c>
       <c r="M61" s="14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N61" s="15">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -7041,7 +7041,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="15">
         <v>5</v>
@@ -7087,7 +7087,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -7143,7 +7143,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -7255,7 +7255,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="str">
         <f>IF(E66 &gt; F66, 1, "")</f>
         <v/>
@@ -7265,7 +7265,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E66" s="15">
         <v>5</v>
@@ -7296,7 +7296,7 @@
       <c r="Q66" s="14"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -7316,7 +7316,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -7336,7 +7336,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69" spans="1:18" ht="27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
       <c r="B69" s="20" t="s">
         <v>75</v>
@@ -7358,31 +7358,31 @@
       <c r="Q69" s="20"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
       <c r="I70" s="8"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="25" t="s">
+      <c r="K70" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="11" t="s">
         <v>59</v>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="str">
         <f>IF(E72 &gt; F72, 1, "")</f>
         <v/>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <f t="shared" ref="A73:A83" si="21">IF(E73 &gt; F73, 1, "")</f>
         <v>1</v>
@@ -7546,7 +7546,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -7565,7 +7565,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>4</v>
@@ -7592,7 +7592,7 @@
         <v>9</v>
       </c>
       <c r="P74" s="14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q74" s="14" t="s">
         <v>4</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -7770,12 +7770,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="28" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="14" t="s">
@@ -7791,7 +7791,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>4</v>
@@ -7804,7 +7804,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K78" s="24" t="s">
+      <c r="K78" s="28" t="s">
         <v>77</v>
       </c>
       <c r="L78" s="14" t="s">
@@ -7830,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -7886,7 +7886,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -7942,7 +7942,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -7988,7 +7988,7 @@
         <v>6</v>
       </c>
       <c r="P81" s="14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q81" s="14" t="s">
         <v>4</v>
@@ -7998,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <f t="shared" si="21"/>
         <v>1</v>
@@ -8017,7 +8017,7 @@
         <v>3</v>
       </c>
       <c r="G82" s="14">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>4</v>
@@ -8054,7 +8054,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -8095,7 +8095,7 @@
       <c r="Q83" s="14"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -8115,7 +8115,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -8135,7 +8135,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" spans="1:18" ht="27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
       <c r="B86" s="20" t="s">
         <v>78</v>
@@ -8157,31 +8157,31 @@
       <c r="Q86" s="20"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
       <c r="I87" s="8"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="25" t="s">
+      <c r="K87" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="11" t="s">
         <v>59</v>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="str">
         <f>IF(E89 &gt; F89, 1, "")</f>
         <v/>
@@ -8289,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <f t="shared" ref="A90:A99" si="25">IF(E90 &gt; F90, 1, "")</f>
         <v>1</v>
@@ -8345,7 +8345,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -8364,7 +8364,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>4</v>
@@ -8391,7 +8391,7 @@
         <v>9</v>
       </c>
       <c r="P91" s="14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q91" s="14" t="s">
         <v>4</v>
@@ -8401,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -8457,7 +8457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -8513,7 +8513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -8569,12 +8569,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="28" t="s">
         <v>80</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -8590,7 +8590,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H95" s="14" t="s">
         <v>4</v>
@@ -8603,7 +8603,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="K95" s="24" t="s">
+      <c r="K95" s="28" t="s">
         <v>80</v>
       </c>
       <c r="L95" s="14" t="s">
@@ -8629,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -8731,7 +8731,7 @@
         <v>5</v>
       </c>
       <c r="P97" s="14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q97" s="14" t="s">
         <v>4</v>
@@ -8741,7 +8741,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -8816,7 +8816,7 @@
         <v>3</v>
       </c>
       <c r="G99" s="14">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>4</v>
@@ -8853,7 +8853,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="str">
         <f>IF(E100 &gt; F100, 1, "")</f>
         <v/>
@@ -8894,7 +8894,7 @@
       <c r="Q100" s="14"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -8914,7 +8914,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -8934,7 +8934,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -8954,7 +8954,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -8974,7 +8974,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -8994,7 +8994,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -9014,7 +9014,7 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -9034,7 +9034,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -9054,7 +9054,7 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -9074,7 +9074,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -9094,7 +9094,7 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -9116,6 +9116,41 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B86:Q86"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="K89:K94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="K95:K100"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="B69:Q69"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="K72:K77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="K78:K83"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="B52:Q52"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="K55:K60"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="K61:K66"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="K38:K43"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="K27:K32"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="K19:Q19"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="K4:K9"/>
@@ -9123,41 +9158,6 @@
     <mergeCell ref="K10:K15"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="K27:K32"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="K38:K43"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="K44:K49"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="B52:Q52"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="K55:K60"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="K61:K66"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="B69:Q69"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="K72:K77"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="K78:K83"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="B86:Q86"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="K89:K94"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="K95:K100"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9170,9 +9170,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="str" cm="1">
         <f t="array" ref="A1:D47">_xlfn.SORTBY('Move-it-over-Spielplan'!T3:W49,'Move-it-over-Spielplan'!V3:V49,-1,'Move-it-over-Spielplan'!W3:W49,-1)</f>
         <v>Klasse</v>
@@ -9187,7 +9187,7 @@
         <v>Siege</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <v>2b</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>2b</v>
       </c>
@@ -9215,12 +9215,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>2g</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>48</v>
@@ -9229,12 +9229,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>2g</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>43</v>
@@ -9243,7 +9243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>2e</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>2h</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>2h</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>2h</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>2h</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>2f</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>2d</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>2d</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>2h</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>2c</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>2f</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>2f</v>
       </c>
@@ -9411,12 +9411,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>2g</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>36</v>
@@ -9425,7 +9425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>2c</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>2b</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>2c</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>2c</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>2e</v>
       </c>
@@ -9495,12 +9495,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>2g</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>33</v>
@@ -9509,7 +9509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>2b</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>2h</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>2a</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>2b</v>
       </c>
@@ -9565,12 +9565,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>2g</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -9579,7 +9579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <v>2b</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <v>2a</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <v>2c</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>2d</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <v>2f</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <v>2a</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <v>2a</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <v>2e</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <v>2d</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <v>2f</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <v>2c</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>2e</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <v>2d</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <v>2e</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <v>2e</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <v>2d</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <v>2a</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <v>2a</v>
       </c>
@@ -9841,19 +9841,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8B5130-A9A4-3D41-9E23-ABC295084148}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="110" workbookViewId="0">
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="20" t="s">
         <v>86</v>
@@ -9869,25 +9869,25 @@
       <c r="K1" s="20"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="11" t="s">
         <v>59</v>
@@ -9918,7 +9918,7 @@
       <c r="L3" s="5"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="21" t="s">
         <v>83</v>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="22"/>
       <c r="C5" s="14" t="s">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="22"/>
       <c r="C6" s="14" t="s">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="22"/>
       <c r="C7" s="14" t="s">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="22"/>
       <c r="C8" s="14" t="s">
@@ -10052,7 +10052,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="22"/>
       <c r="C9" s="14" t="s">
@@ -10078,14 +10078,14 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="22"/>
       <c r="C10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="15">
         <v>7</v>
@@ -10097,14 +10097,14 @@
         <v>4</v>
       </c>
       <c r="J10" s="14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" s="15">
         <v>7</v>
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="29"/>
       <c r="C11" s="14" t="s">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="21" t="s">
         <v>84</v>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="22"/>
       <c r="C13" s="14" t="s">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="22"/>
       <c r="C14" s="14" t="s">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="22"/>
       <c r="C15" s="14" t="s">
@@ -10238,7 +10238,7 @@
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="22"/>
       <c r="C16" s="14" t="s">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="22"/>
       <c r="C17" s="14" t="s">
@@ -10290,14 +10290,14 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="22"/>
       <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="15">
         <v>20</v>
@@ -10309,14 +10309,14 @@
         <v>4</v>
       </c>
       <c r="J18" s="14">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K18" s="15">
         <v>20</v>
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="14" t="s">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="21" t="s">
         <v>85</v>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="22"/>
       <c r="C21" s="14" t="s">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="22"/>
       <c r="C22" s="14" t="s">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="22"/>
       <c r="C23" s="14" t="s">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="22"/>
       <c r="C24" s="14" t="s">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="22"/>
       <c r="C25" s="14" t="s">
@@ -10502,14 +10502,14 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="22"/>
       <c r="C26" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="14">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="15">
         <v>2</v>
@@ -10522,7 +10522,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="29"/>
       <c r="C27" s="14" t="s">
@@ -10542,7 +10542,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -10556,7 +10556,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -10570,7 +10570,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="20" t="s">
         <v>87</v>
@@ -10586,25 +10586,25 @@
       <c r="K30" s="20"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="11" t="s">
         <v>59</v>
@@ -10634,7 +10634,7 @@
       </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="21" t="s">
         <v>89</v>
@@ -10664,7 +10664,7 @@
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="22"/>
       <c r="C34" s="14" t="s">
@@ -10690,7 +10690,7 @@
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="22"/>
       <c r="C35" s="14" t="s">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="22"/>
       <c r="C36" s="14" t="s">
@@ -10742,7 +10742,7 @@
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="22"/>
       <c r="C37" s="14" t="s">
@@ -10768,7 +10768,7 @@
       </c>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="22"/>
       <c r="C38" s="14" t="s">
@@ -10794,14 +10794,14 @@
       </c>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="22"/>
       <c r="C39" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39" s="15">
         <v>7</v>
@@ -10813,14 +10813,14 @@
         <v>4</v>
       </c>
       <c r="J39" s="14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K39" s="15">
         <v>7</v>
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="29"/>
       <c r="C40" s="14" t="s">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="21" t="s">
         <v>90</v>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="22"/>
       <c r="C42" s="14" t="s">
@@ -10902,7 +10902,7 @@
       </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="22"/>
       <c r="C43" s="14" t="s">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="22"/>
       <c r="C44" s="14" t="s">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="22"/>
       <c r="C45" s="14" t="s">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="22"/>
       <c r="C46" s="14" t="s">
@@ -11006,14 +11006,14 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="22"/>
       <c r="C47" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="14">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="15">
         <v>20</v>
@@ -11025,14 +11025,14 @@
         <v>4</v>
       </c>
       <c r="J47" s="14">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K47" s="15">
         <v>20</v>
       </c>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="29"/>
       <c r="C48" s="14" t="s">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="21" t="s">
         <v>91</v>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="22"/>
       <c r="C50" s="14" t="s">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="22"/>
       <c r="C51" s="14" t="s">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="22"/>
       <c r="C52" s="14" t="s">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="22"/>
       <c r="C53" s="14" t="s">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="22"/>
       <c r="C54" s="14" t="s">
@@ -11218,14 +11218,14 @@
       </c>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="22"/>
       <c r="C55" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E55" s="15">
         <v>2</v>
@@ -11238,7 +11238,7 @@
       <c r="K55" s="15"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="29"/>
       <c r="C56" s="14" t="s">
@@ -11258,7 +11258,7 @@
       <c r="K56" s="15"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -11272,7 +11272,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -11286,7 +11286,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A59" s="6"/>
       <c r="B59" s="20" t="s">
         <v>88</v>
@@ -11302,25 +11302,25 @@
       <c r="K59" s="20"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="25" t="s">
+      <c r="H60" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="11" t="s">
         <v>59</v>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="21" t="s">
         <v>92</v>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="22"/>
       <c r="C63" s="14" t="s">
@@ -11406,7 +11406,7 @@
       </c>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="22"/>
       <c r="C64" s="14" t="s">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="22"/>
       <c r="C65" s="14" t="s">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="22"/>
       <c r="C66" s="14" t="s">
@@ -11484,7 +11484,7 @@
       </c>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="22"/>
       <c r="C67" s="14" t="s">
@@ -11510,14 +11510,14 @@
       </c>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="22"/>
       <c r="C68" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E68" s="15">
         <v>7</v>
@@ -11529,14 +11529,14 @@
         <v>4</v>
       </c>
       <c r="J68" s="14">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K68" s="15">
         <v>7</v>
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="29"/>
       <c r="C69" s="14" t="s">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="21" t="s">
         <v>93</v>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="22"/>
       <c r="C71" s="14" t="s">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="22"/>
       <c r="C72" s="14" t="s">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="22"/>
       <c r="C73" s="14" t="s">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="22"/>
       <c r="C74" s="14" t="s">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="22"/>
       <c r="C75" s="14" t="s">
@@ -11722,14 +11722,14 @@
       </c>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="22"/>
       <c r="C76" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="14">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E76" s="15">
         <v>20</v>
@@ -11741,14 +11741,14 @@
         <v>4</v>
       </c>
       <c r="J76" s="14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K76" s="15">
         <v>20</v>
       </c>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="29"/>
       <c r="C77" s="14" t="s">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="21" t="s">
         <v>94</v>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="22"/>
       <c r="C79" s="14" t="s">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="22"/>
       <c r="C80" s="14" t="s">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="22"/>
       <c r="C81" s="14" t="s">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="22"/>
       <c r="C82" s="14" t="s">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="22"/>
       <c r="C83" s="14" t="s">
@@ -11934,14 +11934,14 @@
       </c>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="22"/>
       <c r="C84" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E84" s="15">
         <v>2</v>
@@ -11954,7 +11954,7 @@
       <c r="K84" s="15"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12" ht="22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="29"/>
       <c r="C85" s="14" t="s">
@@ -11974,7 +11974,7 @@
       <c r="K85" s="15"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -11988,7 +11988,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -12002,7 +12002,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -12032,7 +12032,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>_xlfn.XLOOKUP(H89,D$4:D$27,E$4:E$27,0)+_xlfn.XLOOKUP(H89,J$4:J$27,K$4:K$27,0)</f>
         <v>1</v>
@@ -12064,7 +12064,7 @@
       <c r="J89" s="5"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ref="A90:A134" si="0">_xlfn.XLOOKUP(H90,D$4:D$27,E$4:E$27,0)+_xlfn.XLOOKUP(H90,J$4:J$27,K$4:K$27,0)</f>
         <v>1</v>
@@ -12096,7 +12096,7 @@
       <c r="J90" s="5"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -12128,7 +12128,7 @@
       <c r="J91" s="5"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -12160,7 +12160,7 @@
       <c r="J92" s="5"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -12192,7 +12192,7 @@
       <c r="J93" s="5"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -12224,7 +12224,7 @@
       <c r="J94" s="5"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12256,7 +12256,7 @@
       <c r="J95" s="5"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12288,7 +12288,7 @@
       <c r="J96" s="5"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12320,7 +12320,7 @@
       <c r="J97" s="5"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12352,7 +12352,7 @@
       <c r="J98" s="5"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12383,7 +12383,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12662,7 +12662,7 @@
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12724,7 +12724,7 @@
       </c>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12786,7 +12786,7 @@
       </c>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12996,14 +12996,14 @@
         <v>2</v>
       </c>
       <c r="H119" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I119" t="s">
         <v>4</v>
       </c>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13027,14 +13027,14 @@
         <v>2</v>
       </c>
       <c r="H120" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I120" t="s">
         <v>4</v>
       </c>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13058,14 +13058,14 @@
         <v>7</v>
       </c>
       <c r="H121" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I121" t="s">
         <v>4</v>
       </c>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13089,14 +13089,14 @@
         <v>7</v>
       </c>
       <c r="H122" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I122" t="s">
         <v>4</v>
       </c>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -13120,14 +13120,14 @@
         <v>2</v>
       </c>
       <c r="H123" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I123" t="s">
         <v>4</v>
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13158,7 +13158,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13251,7 +13251,7 @@
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13406,7 +13406,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13470,18 +13470,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="H20:H27"/>
     <mergeCell ref="B33:B40"/>
     <mergeCell ref="H33:H40"/>
     <mergeCell ref="B78:B85"/>
@@ -13497,6 +13485,18 @@
     <mergeCell ref="H49:H56"/>
     <mergeCell ref="B62:B69"/>
     <mergeCell ref="H62:H69"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="H20:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13510,15 +13510,15 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str" cm="1">
         <f t="array" ref="A1:E47">_xlfn.SORTBY('RoboBall-Spielplan'!E88:I134,'RoboBall-Spielplan'!E88:E134,-1,'RoboBall-Spielplan'!F88:F134,-1,'RoboBall-Spielplan'!G88:G134,-1)</f>
         <v>Bester</v>
@@ -13539,7 +13539,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>43</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>43</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>43</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>2c</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -13771,13 +13771,13 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" t="str">
         <v>2g</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -13788,13 +13788,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="str">
         <v>2g</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -13805,13 +13805,13 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" t="str">
         <v>2g</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -13822,13 +13822,13 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" t="str">
         <v>2g</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -13907,13 +13907,13 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" t="str">
         <v>2g</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>2f</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>2e</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>2d</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>2a</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>2b</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -14332,13 +14332,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009128B-BC04-AE43-96E7-DEE798181085}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>98</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -14721,15 +14721,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="8809bee8-42c8-488a-8141-8f04d619b36c" xsi:nil="true"/>
@@ -14738,6 +14729,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14942,14 +14942,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7263C-2DE4-4511-A0DE-FB7A876B2661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33E82EA-34B8-478E-90E7-7586E722C072}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14962,6 +14954,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="8809bee8-42c8-488a-8141-8f04d619b36c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7263C-2DE4-4511-A0DE-FB7A876B2661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/KWI-RoboChallange_Rangliste_FS2025.xlsx
+++ b/KWI-RoboChallange_Rangliste_FS2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillagretsch/KWI-RoboChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B07FDA-5B83-F94D-9586-F208412D4360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807ED59E-7CF7-574D-8E78-49A2A3EA5CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3471,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E431A25-7996-7A46-826A-C481A5ABF70E}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F15"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3657,11 +3657,11 @@
       </c>
       <c r="V4">
         <f>SUMIF(D$4:D$100,U4,E$4:E$100)+SUMIF(G$4:G$100,U4,F$4:F$100)+SUMIF(M$4:M$100,U4,N$4:N$100)+SUMIF(P$4:P$100,U4,O$4:O$100)</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="W4">
         <f>SUMIF(D$4:D$100,U4,A$4:A$100)+SUMIF(G$4:G$100,U4,I$4:I$100)+SUMIF(M$4:M$100,U4,J$4:J$100)+SUMIF(P$4:P$100,U4,R$4:R$100)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="V5">
         <f t="shared" ref="V5:V49" si="4">SUMIF(D$4:D$100,U5,E$4:E$100)+SUMIF(G$4:G$100,U5,F$4:F$100)+SUMIF(M$4:M$100,U5,N$4:N$100)+SUMIF(P$4:P$100,U5,O$4:O$100)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W5">
         <f t="shared" ref="W5:W49" si="5">SUMIF(D$4:D$100,U5,A$4:A$100)+SUMIF(G$4:G$100,U5,I$4:I$100)+SUMIF(M$4:M$100,U5,J$4:J$100)+SUMIF(P$4:P$100,U5,R$4:R$100)</f>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="W6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3867,11 +3867,11 @@
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="W7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3937,11 +3937,11 @@
       </c>
       <c r="V8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4007,11 +4007,11 @@
       </c>
       <c r="V9">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W10">
         <f t="shared" si="5"/>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W11">
         <f t="shared" si="5"/>
@@ -4221,11 +4221,11 @@
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="W12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="W13">
         <f t="shared" si="5"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W14">
         <f t="shared" si="5"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W15">
         <f t="shared" si="5"/>
@@ -4450,11 +4450,11 @@
       </c>
       <c r="V16">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -4484,11 +4484,11 @@
       </c>
       <c r="V17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="W17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="27" x14ac:dyDescent="0.35">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="V18">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="W18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="V19">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="W20">
         <f t="shared" si="5"/>
@@ -4641,21 +4641,25 @@
       <c r="D21" s="14">
         <v>51</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="15">
+        <v>3</v>
+      </c>
+      <c r="F21" s="15">
+        <v>7</v>
+      </c>
       <c r="G21" s="14">
         <v>1</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="7" t="str">
+      <c r="I21" s="7">
         <f t="shared" ref="I21:I32" si="6">IF(F21 &gt; E21, 1, "")</f>
-        <v/>
-      </c>
-      <c r="J21" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
         <f t="shared" ref="J21:J32" si="7">IF(N21 &gt; O21, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>67</v>
@@ -4666,8 +4670,12 @@
       <c r="M21" s="14">
         <v>52</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="N21" s="15">
+        <v>8</v>
+      </c>
+      <c r="O21" s="15">
+        <v>2</v>
+      </c>
       <c r="P21" s="14">
         <v>2</v>
       </c>
@@ -4686,7 +4694,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W21">
         <f t="shared" si="5"/>
@@ -4705,17 +4713,21 @@
       <c r="D22" s="14">
         <v>73</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="15">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15">
+        <v>6</v>
+      </c>
       <c r="G22" s="14">
         <v>26</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="7" t="str">
+      <c r="I22" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J22" s="18" t="str">
         <f t="shared" si="7"/>
@@ -4728,8 +4740,12 @@
       <c r="M22" s="14">
         <v>75</v>
       </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="N22" s="15">
+        <v>5</v>
+      </c>
+      <c r="O22" s="15">
+        <v>5</v>
+      </c>
       <c r="P22" s="14">
         <v>28</v>
       </c>
@@ -4748,11 +4764,11 @@
       </c>
       <c r="V22">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="W22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4767,17 +4783,21 @@
       <c r="D23" s="16">
         <v>14</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="15">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15">
+        <v>6</v>
+      </c>
       <c r="G23" s="14">
         <v>65</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="7" t="str">
+      <c r="I23" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J23" s="18" t="str">
         <f t="shared" si="7"/>
@@ -4790,17 +4810,21 @@
       <c r="M23" s="16">
         <v>16</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="N23" s="15">
+        <v>3</v>
+      </c>
+      <c r="O23" s="15">
+        <v>7</v>
+      </c>
       <c r="P23" s="14">
         <v>63</v>
       </c>
       <c r="Q23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R23" t="str">
+      <c r="R23">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
         <v>48</v>
@@ -4810,7 +4834,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W23">
         <f t="shared" si="5"/>
@@ -4829,21 +4853,25 @@
       <c r="D24" s="14">
         <v>85</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="15">
+        <v>4</v>
+      </c>
+      <c r="F24" s="15">
+        <v>6</v>
+      </c>
       <c r="G24" s="14">
         <v>38</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="7" t="str">
+      <c r="I24" s="7">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J24" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="14" t="s">
@@ -4852,8 +4880,12 @@
       <c r="M24" s="14">
         <v>88</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="N24" s="15">
+        <v>7</v>
+      </c>
+      <c r="O24" s="15">
+        <v>3</v>
+      </c>
       <c r="P24" s="14">
         <v>40</v>
       </c>
@@ -4872,11 +4904,11 @@
       </c>
       <c r="V24">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="W24">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4891,17 +4923,21 @@
       <c r="D25" s="14">
         <v>55</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="15">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15">
+        <v>6</v>
+      </c>
       <c r="G25" s="14">
         <v>3</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="7" t="str">
+      <c r="I25" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J25" s="18" t="str">
         <f t="shared" si="7"/>
@@ -4914,17 +4950,21 @@
       <c r="M25" s="16">
         <v>60</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="N25" s="15">
+        <v>1</v>
+      </c>
+      <c r="O25" s="15">
+        <v>9</v>
+      </c>
       <c r="P25" s="14">
         <v>4</v>
       </c>
       <c r="Q25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R25" t="str">
+      <c r="R25">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="T25" t="s">
         <v>48</v>
@@ -4934,7 +4974,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W25">
         <f t="shared" si="5"/>
@@ -4953,21 +4993,25 @@
       <c r="D26" s="14">
         <v>78</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="15">
+        <v>3</v>
+      </c>
+      <c r="F26" s="15">
+        <v>7</v>
+      </c>
       <c r="G26" s="14">
         <v>31</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="7" t="str">
+      <c r="I26" s="7">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J26" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="14" t="s">
@@ -4976,8 +5020,12 @@
       <c r="M26" s="16">
         <v>79</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="N26" s="15">
+        <v>6</v>
+      </c>
+      <c r="O26" s="15">
+        <v>4</v>
+      </c>
       <c r="P26" s="14">
         <v>33</v>
       </c>
@@ -4996,7 +5044,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="W26">
         <f t="shared" si="5"/>
@@ -5017,17 +5065,21 @@
       <c r="D27" s="14">
         <v>19</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="15">
+        <v>3</v>
+      </c>
+      <c r="F27" s="15">
+        <v>7</v>
+      </c>
       <c r="G27" s="14">
         <v>67</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="7" t="str">
+      <c r="I27" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J27" s="18" t="str">
         <f t="shared" si="7"/>
@@ -5042,17 +5094,21 @@
       <c r="M27" s="16">
         <v>21</v>
       </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="N27" s="15">
+        <v>4</v>
+      </c>
+      <c r="O27" s="15">
+        <v>6</v>
+      </c>
       <c r="P27" s="16">
         <v>69</v>
       </c>
       <c r="Q27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R27" t="str">
+      <c r="R27">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="T27" t="s">
         <v>48</v>
@@ -5062,11 +5118,11 @@
       </c>
       <c r="V27">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="W27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5081,21 +5137,25 @@
       <c r="D28" s="14">
         <v>89</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>10</v>
+      </c>
       <c r="G28" s="14">
         <v>43</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="7" t="str">
+      <c r="I28" s="7">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J28" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="14" t="s">
@@ -5104,8 +5164,12 @@
       <c r="M28" s="14">
         <v>92</v>
       </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
+      <c r="N28" s="15">
+        <v>6</v>
+      </c>
+      <c r="O28" s="15">
+        <v>4</v>
+      </c>
       <c r="P28" s="14">
         <v>45</v>
       </c>
@@ -5124,11 +5188,11 @@
       </c>
       <c r="V28">
         <f>SUMIF(D$4:D$100,U28,E$4:E$100)+SUMIF(G$4:G$100,U28,F$4:F$100)+SUMIF(M$4:M$100,U28,N$4:N$100)+SUMIF(P$4:P$100,U28,O$4:O$100)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="W28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5143,17 +5207,21 @@
       <c r="D29" s="14">
         <v>57</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="15">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15">
+        <v>6</v>
+      </c>
       <c r="G29" s="14">
         <v>6</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="7" t="str">
+      <c r="I29" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J29" s="18" t="str">
         <f t="shared" si="7"/>
@@ -5166,17 +5234,21 @@
       <c r="M29" s="14">
         <v>59</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="N29" s="15">
+        <v>4</v>
+      </c>
+      <c r="O29" s="15">
+        <v>6</v>
+      </c>
       <c r="P29" s="14">
         <v>10</v>
       </c>
       <c r="Q29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R29" t="str">
+      <c r="R29">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="T29" t="s">
         <v>37</v>
@@ -5186,11 +5258,11 @@
       </c>
       <c r="V29">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5205,8 +5277,12 @@
       <c r="D30" s="14">
         <v>82</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="15">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15">
+        <v>5</v>
+      </c>
       <c r="G30" s="14">
         <v>34</v>
       </c>
@@ -5217,9 +5293,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J30" s="18" t="str">
+      <c r="J30" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K30" s="25"/>
       <c r="L30" s="14" t="s">
@@ -5228,8 +5304,12 @@
       <c r="M30" s="14">
         <v>83</v>
       </c>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="N30" s="15">
+        <v>6</v>
+      </c>
+      <c r="O30" s="15">
+        <v>4</v>
+      </c>
       <c r="P30" s="14">
         <v>25</v>
       </c>
@@ -5248,7 +5328,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W30">
         <f t="shared" si="5"/>
@@ -5267,17 +5347,21 @@
       <c r="D31" s="14">
         <v>22</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="15">
+        <v>2</v>
+      </c>
+      <c r="F31" s="15">
+        <v>8</v>
+      </c>
       <c r="G31" s="14">
         <v>72</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="7" t="str">
+      <c r="I31" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J31" s="18" t="str">
         <f t="shared" si="7"/>
@@ -5290,17 +5374,21 @@
       <c r="M31" s="14">
         <v>37</v>
       </c>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="N31" s="15">
+        <v>4</v>
+      </c>
+      <c r="O31" s="15">
+        <v>6</v>
+      </c>
       <c r="P31" s="14">
         <v>49</v>
       </c>
       <c r="Q31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="R31" t="str">
+      <c r="R31">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="T31" t="s">
         <v>37</v>
@@ -5310,7 +5398,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W31">
         <f t="shared" si="5"/>
@@ -5329,8 +5417,12 @@
       <c r="D32" s="14">
         <v>94</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="15">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15">
+        <v>5</v>
+      </c>
       <c r="G32" s="14">
         <v>47</v>
       </c>
@@ -5361,11 +5453,11 @@
       </c>
       <c r="V32">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="W32">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
@@ -5395,7 +5487,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="W33">
         <f t="shared" si="5"/>
@@ -5429,11 +5521,11 @@
       </c>
       <c r="V34">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="27" x14ac:dyDescent="0.35">
@@ -5465,11 +5557,11 @@
       </c>
       <c r="V35">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="W35">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5503,11 +5595,11 @@
       </c>
       <c r="V36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -5565,17 +5657,17 @@
       </c>
       <c r="V37">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="W37">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="22" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="str">
+      <c r="A38" s="7">
         <f>IF(E38 &gt; F38, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>70</v>
@@ -5586,8 +5678,12 @@
       <c r="D38" s="14">
         <v>51</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="15">
+        <v>6</v>
+      </c>
+      <c r="F38" s="15">
+        <v>4</v>
+      </c>
       <c r="G38" s="14">
         <v>14</v>
       </c>
@@ -5598,9 +5694,9 @@
         <f>IF(F38 &gt; E38, 1, "")</f>
         <v/>
       </c>
-      <c r="J38" s="18" t="str">
+      <c r="J38" s="18">
         <f t="shared" ref="J38:J49" si="10">IF(N38 &gt; O38, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>70</v>
@@ -5611,8 +5707,12 @@
       <c r="M38" s="14">
         <v>52</v>
       </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
+      <c r="N38" s="15">
+        <v>9</v>
+      </c>
+      <c r="O38" s="15">
+        <v>1</v>
+      </c>
       <c r="P38" s="14">
         <v>16</v>
       </c>
@@ -5631,11 +5731,11 @@
       </c>
       <c r="V38">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="W38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5650,8 +5750,12 @@
       <c r="D39" s="14">
         <v>73</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="15">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15">
+        <v>5</v>
+      </c>
       <c r="G39" s="14">
         <v>85</v>
       </c>
@@ -5673,8 +5777,12 @@
       <c r="M39" s="14">
         <v>75</v>
       </c>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
+      <c r="N39" s="15">
+        <v>5</v>
+      </c>
+      <c r="O39" s="15">
+        <v>5</v>
+      </c>
       <c r="P39" s="14">
         <v>88</v>
       </c>
@@ -5693,7 +5801,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="W39">
         <f t="shared" si="5"/>
@@ -5701,9 +5809,9 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="22" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="str">
+      <c r="A40" s="7">
         <f t="shared" si="12"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="14" t="s">
@@ -5712,8 +5820,12 @@
       <c r="D40" s="14">
         <v>1</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="E40" s="15">
+        <v>6</v>
+      </c>
+      <c r="F40" s="15">
+        <v>4</v>
+      </c>
       <c r="G40" s="14">
         <v>65</v>
       </c>
@@ -5735,17 +5847,21 @@
       <c r="M40" s="14">
         <v>2</v>
       </c>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
+      <c r="N40" s="15">
+        <v>4</v>
+      </c>
+      <c r="O40" s="15">
+        <v>6</v>
+      </c>
       <c r="P40" s="14">
         <v>63</v>
       </c>
       <c r="Q40" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R40" t="str">
+      <c r="R40">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="T40" t="s">
         <v>5</v>
@@ -5755,7 +5871,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W40">
         <f t="shared" si="5"/>
@@ -5774,21 +5890,25 @@
       <c r="D41" s="14">
         <v>26</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="E41" s="15">
+        <v>4</v>
+      </c>
+      <c r="F41" s="15">
+        <v>6</v>
+      </c>
       <c r="G41" s="14">
         <v>38</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="7" t="str">
+      <c r="I41" s="7">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J41" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J41" s="18">
         <f t="shared" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K41" s="22"/>
       <c r="L41" s="14" t="s">
@@ -5797,8 +5917,12 @@
       <c r="M41" s="14">
         <v>28</v>
       </c>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
+      <c r="N41" s="15">
+        <v>6</v>
+      </c>
+      <c r="O41" s="15">
+        <v>4</v>
+      </c>
       <c r="P41" s="14">
         <v>40</v>
       </c>
@@ -5817,7 +5941,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W41">
         <f t="shared" si="5"/>
@@ -5836,17 +5960,21 @@
       <c r="D42" s="14">
         <v>55</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="E42" s="15">
+        <v>4</v>
+      </c>
+      <c r="F42" s="15">
+        <v>6</v>
+      </c>
       <c r="G42" s="14">
         <v>19</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="7" t="str">
+      <c r="I42" s="7">
         <f t="shared" si="13"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J42" s="18" t="str">
         <f t="shared" si="10"/>
@@ -5859,8 +5987,12 @@
       <c r="M42" s="14">
         <v>60</v>
       </c>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
+      <c r="N42" s="15">
+        <v>5</v>
+      </c>
+      <c r="O42" s="15">
+        <v>5</v>
+      </c>
       <c r="P42" s="14">
         <v>21</v>
       </c>
@@ -5879,11 +6011,11 @@
       </c>
       <c r="V42">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="W42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5898,17 +6030,21 @@
       <c r="D43" s="14">
         <v>78</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="E43" s="15">
+        <v>4</v>
+      </c>
+      <c r="F43" s="15">
+        <v>6</v>
+      </c>
       <c r="G43" s="14">
         <v>89</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="7" t="str">
+      <c r="I43" s="7">
         <f t="shared" si="13"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J43" s="18" t="str">
         <f t="shared" si="10"/>
@@ -5921,8 +6057,12 @@
       <c r="M43" s="14">
         <v>79</v>
       </c>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
+      <c r="N43" s="15">
+        <v>5</v>
+      </c>
+      <c r="O43" s="15">
+        <v>5</v>
+      </c>
       <c r="P43" s="14">
         <v>92</v>
       </c>
@@ -5941,7 +6081,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="W43">
         <f t="shared" si="5"/>
@@ -5962,17 +6102,21 @@
       <c r="D44" s="14">
         <v>3</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="E44" s="15">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15">
+        <v>6</v>
+      </c>
       <c r="G44" s="14">
         <v>67</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="7" t="str">
+      <c r="I44" s="7">
         <f t="shared" si="13"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J44" s="18" t="str">
         <f t="shared" si="10"/>
@@ -5987,17 +6131,21 @@
       <c r="M44" s="14">
         <v>4</v>
       </c>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
+      <c r="N44" s="15">
+        <v>4</v>
+      </c>
+      <c r="O44" s="15">
+        <v>6</v>
+      </c>
       <c r="P44" s="14">
         <v>69</v>
       </c>
       <c r="Q44" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R44" t="str">
+      <c r="R44">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="T44" t="s">
         <v>5</v>
@@ -6007,11 +6155,11 @@
       </c>
       <c r="V44">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="W44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6026,21 +6174,25 @@
       <c r="D45" s="14">
         <v>31</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="15">
+        <v>1</v>
+      </c>
+      <c r="F45" s="15">
+        <v>9</v>
+      </c>
       <c r="G45" s="14">
         <v>43</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="7" t="str">
+      <c r="I45" s="7">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J45" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J45" s="18">
         <f t="shared" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K45" s="22"/>
       <c r="L45" s="14" t="s">
@@ -6049,8 +6201,12 @@
       <c r="M45" s="14">
         <v>33</v>
       </c>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
+      <c r="N45" s="15">
+        <v>6</v>
+      </c>
+      <c r="O45" s="15">
+        <v>4</v>
+      </c>
       <c r="P45" s="14">
         <v>45</v>
       </c>
@@ -6069,7 +6225,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="W45">
         <f t="shared" si="5"/>
@@ -6077,9 +6233,9 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="22" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="str">
+      <c r="A46" s="7">
         <f t="shared" si="12"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="14" t="s">
@@ -6088,8 +6244,12 @@
       <c r="D46" s="14">
         <v>57</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="E46" s="15">
+        <v>6</v>
+      </c>
+      <c r="F46" s="15">
+        <v>4</v>
+      </c>
       <c r="G46" s="14">
         <v>22</v>
       </c>
@@ -6111,8 +6271,12 @@
       <c r="M46" s="14">
         <v>59</v>
       </c>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
+      <c r="N46" s="15">
+        <v>5</v>
+      </c>
+      <c r="O46" s="15">
+        <v>5</v>
+      </c>
       <c r="P46" s="14">
         <v>37</v>
       </c>
@@ -6131,11 +6295,11 @@
       </c>
       <c r="V46">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="W46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6150,17 +6314,21 @@
       <c r="D47" s="14">
         <v>82</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="E47" s="15">
+        <v>4</v>
+      </c>
+      <c r="F47" s="15">
+        <v>6</v>
+      </c>
       <c r="G47" s="14">
         <v>94</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="7" t="str">
+      <c r="I47" s="7">
         <f t="shared" si="13"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J47" s="18" t="str">
         <f t="shared" si="10"/>
@@ -6173,8 +6341,12 @@
       <c r="M47" s="14">
         <v>83</v>
       </c>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
+      <c r="N47" s="15">
+        <v>5</v>
+      </c>
+      <c r="O47" s="15">
+        <v>5</v>
+      </c>
       <c r="P47" s="14">
         <v>49</v>
       </c>
@@ -6193,11 +6365,11 @@
       </c>
       <c r="V47">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="W47">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6212,21 +6384,25 @@
       <c r="D48" s="14">
         <v>6</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="E48" s="15">
+        <v>2</v>
+      </c>
+      <c r="F48" s="15">
+        <v>8</v>
+      </c>
       <c r="G48" s="14">
         <v>72</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="7" t="str">
+      <c r="I48" s="7">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J48" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J48" s="18">
         <f t="shared" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="14" t="s">
@@ -6235,8 +6411,12 @@
       <c r="M48" s="14">
         <v>10</v>
       </c>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
+      <c r="N48" s="15">
+        <v>6</v>
+      </c>
+      <c r="O48" s="15">
+        <v>4</v>
+      </c>
       <c r="P48" s="14">
         <v>25</v>
       </c>
@@ -6255,11 +6435,11 @@
       </c>
       <c r="V48">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="W48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6274,8 +6454,12 @@
       <c r="D49" s="14">
         <v>34</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="E49" s="15">
+        <v>5</v>
+      </c>
+      <c r="F49" s="15">
+        <v>5</v>
+      </c>
       <c r="G49" s="14">
         <v>47</v>
       </c>
@@ -6306,11 +6490,11 @@
       </c>
       <c r="V49">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="W49">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -8735,10 +8919,10 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8749,10 +8933,10 @@
         <v>52</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8760,66 +8944,66 @@
         <v>2g</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <v>2c</v>
+        <v>2g</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <v>2a</v>
+        <v>2c</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <v>2a</v>
+        <v>2c</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <v>2e</v>
+        <v>2c</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8833,77 +9017,77 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <v>2d</v>
+        <v>2h</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <v>2d</v>
+        <v>2g</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <v>2a</v>
+        <v>2f</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <v>2g</v>
+        <v>2a</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <v>2f</v>
+        <v>2d</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -8911,13 +9095,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <v>2f</v>
+        <v>2h</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -8925,13 +9109,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <v>2f</v>
+        <v>2a</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -8939,167 +9123,167 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <v>2c</v>
+        <v>2f</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <v>2c</v>
+        <v>2f</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <v>2e</v>
+        <v>2d</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <v>2e</v>
+        <v>2d</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <v>2d</v>
+        <v>2g</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <v>2d</v>
+        <v>2f</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <v>2h</v>
+        <v>2d</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>2h</v>
+        <v>2c</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <v>2h</v>
+        <v>2a</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>2a</v>
+        <v>2b</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <v>2a</v>
+        <v>2b</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <v>2g</v>
+        <v>2e</v>
       </c>
       <c r="B28">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -9107,13 +9291,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>2g</v>
+        <v>2h</v>
       </c>
       <c r="B29">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -9127,7 +9311,7 @@
         <v>73</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -9135,55 +9319,55 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <v>2b</v>
+        <v>2g</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <v>2f</v>
+        <v>2e</v>
       </c>
       <c r="B32">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>2c</v>
+        <v>2a</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>2c</v>
+        <v>2e</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -9191,13 +9375,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>2c</v>
+        <v>2h</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9205,13 +9389,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <v>2e</v>
+        <v>2a</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -9219,13 +9403,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <v>2e</v>
+        <v>2b</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -9233,41 +9417,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <v>2e</v>
+        <v>2f</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <v>2h</v>
+        <v>2c</v>
       </c>
       <c r="B39">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
       <c r="B40">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -9275,13 +9459,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <v>2f</v>
+        <v>2d</v>
       </c>
       <c r="B41">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -9289,13 +9473,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <v>2d</v>
+        <v>2b</v>
       </c>
       <c r="B42">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -9306,10 +9490,10 @@
         <v>2b</v>
       </c>
       <c r="B43">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -9317,27 +9501,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
       <c r="B44">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>2h</v>
+        <v>2c</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -9345,13 +9529,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
       <c r="B46">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9359,13 +9543,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <v>2g</v>
+        <v>2h</v>
       </c>
       <c r="B47">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -9381,8 +9565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8B5130-A9A4-3D41-9E23-ABC295084148}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10185,7 +10369,9 @@
       <c r="D33" s="14">
         <v>50</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="15">
+        <v>6</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="21" t="s">
@@ -10197,7 +10383,9 @@
       <c r="J33" s="14">
         <v>53</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="15">
+        <v>1</v>
+      </c>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10209,7 +10397,9 @@
       <c r="D34" s="14">
         <v>76</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="15">
+        <v>8</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="22"/>
@@ -10219,7 +10409,9 @@
       <c r="J34" s="14">
         <v>77</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="15">
+        <v>1</v>
+      </c>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10231,7 +10423,9 @@
       <c r="D35" s="14">
         <v>5</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15">
+        <v>5</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="22"/>
@@ -10241,7 +10435,9 @@
       <c r="J35" s="14">
         <v>12</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="15">
+        <v>10</v>
+      </c>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10253,7 +10449,9 @@
       <c r="D36" s="14">
         <v>32</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="15">
+        <v>9</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="22"/>
@@ -10263,7 +10461,9 @@
       <c r="J36" s="14">
         <v>35</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="15">
+        <v>22</v>
+      </c>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10275,7 +10475,9 @@
       <c r="D37" s="16">
         <v>23</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="15">
+        <v>19</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="22"/>
@@ -10285,7 +10487,9 @@
       <c r="J37" s="16">
         <v>24</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10297,7 +10501,9 @@
       <c r="D38" s="14">
         <v>86</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="22"/>
@@ -10307,7 +10513,9 @@
       <c r="J38" s="14">
         <v>87</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="15">
+        <v>10</v>
+      </c>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10319,7 +10527,9 @@
       <c r="D39" s="14">
         <v>66</v>
       </c>
-      <c r="E39" s="15"/>
+      <c r="E39" s="15">
+        <v>7</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="22"/>
@@ -10329,7 +10539,9 @@
       <c r="J39" s="14">
         <v>68</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="15">
+        <v>22</v>
+      </c>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10341,7 +10553,9 @@
       <c r="D40" s="14">
         <v>42</v>
       </c>
-      <c r="E40" s="15"/>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="29"/>
@@ -10351,7 +10565,9 @@
       <c r="J40" s="14">
         <v>44</v>
       </c>
-      <c r="K40" s="15"/>
+      <c r="K40" s="15">
+        <v>5</v>
+      </c>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10365,7 +10581,9 @@
       <c r="D41" s="14">
         <v>54</v>
       </c>
-      <c r="E41" s="15"/>
+      <c r="E41" s="15">
+        <v>9</v>
+      </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="21" t="s">
@@ -10377,7 +10595,9 @@
       <c r="J41" s="14">
         <v>56</v>
       </c>
-      <c r="K41" s="15"/>
+      <c r="K41" s="15">
+        <v>3</v>
+      </c>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10389,7 +10609,9 @@
       <c r="D42" s="14">
         <v>80</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="22"/>
@@ -10399,7 +10621,9 @@
       <c r="J42" s="14">
         <v>81</v>
       </c>
-      <c r="K42" s="15"/>
+      <c r="K42" s="15">
+        <v>0</v>
+      </c>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10411,7 +10635,9 @@
       <c r="D43" s="14">
         <v>8</v>
       </c>
-      <c r="E43" s="15"/>
+      <c r="E43" s="15">
+        <v>10</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="22"/>
@@ -10421,7 +10647,9 @@
       <c r="J43" s="14">
         <v>11</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="K43" s="15">
+        <v>9</v>
+      </c>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10433,7 +10661,9 @@
       <c r="D44" s="14">
         <v>36</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="22"/>
@@ -10443,7 +10673,9 @@
       <c r="J44" s="14">
         <v>27</v>
       </c>
-      <c r="K44" s="15"/>
+      <c r="K44" s="15">
+        <v>14</v>
+      </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10455,7 +10687,9 @@
       <c r="D45" s="16">
         <v>15</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="15">
+        <v>4</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="22"/>
@@ -10465,7 +10699,9 @@
       <c r="J45" s="16">
         <v>17</v>
       </c>
-      <c r="K45" s="15"/>
+      <c r="K45" s="15">
+        <v>13</v>
+      </c>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10477,7 +10713,9 @@
       <c r="D46" s="14">
         <v>90</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="15">
+        <v>8</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="22"/>
@@ -10487,7 +10725,9 @@
       <c r="J46" s="14">
         <v>91</v>
       </c>
-      <c r="K46" s="15"/>
+      <c r="K46" s="15">
+        <v>3</v>
+      </c>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10499,7 +10739,9 @@
       <c r="D47" s="14">
         <v>70</v>
       </c>
-      <c r="E47" s="15"/>
+      <c r="E47" s="15">
+        <v>2</v>
+      </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="22"/>
@@ -10509,7 +10751,9 @@
       <c r="J47" s="14">
         <v>71</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="15">
+        <v>13</v>
+      </c>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10521,7 +10765,9 @@
       <c r="D48" s="14">
         <v>46</v>
       </c>
-      <c r="E48" s="15"/>
+      <c r="E48" s="15">
+        <v>10</v>
+      </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="29"/>
@@ -10531,7 +10777,9 @@
       <c r="J48" s="14">
         <v>48</v>
       </c>
-      <c r="K48" s="15"/>
+      <c r="K48" s="15">
+        <v>6</v>
+      </c>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10545,7 +10793,9 @@
       <c r="D49" s="14">
         <v>62</v>
       </c>
-      <c r="E49" s="15"/>
+      <c r="E49" s="15">
+        <v>4</v>
+      </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="21" t="s">
@@ -10557,7 +10807,9 @@
       <c r="J49" s="14">
         <v>58</v>
       </c>
-      <c r="K49" s="15"/>
+      <c r="K49" s="15">
+        <v>1</v>
+      </c>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10569,7 +10821,9 @@
       <c r="D50" s="14">
         <v>84</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="15">
+        <v>0</v>
+      </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="22"/>
@@ -10579,7 +10833,9 @@
       <c r="J50" s="14">
         <v>74</v>
       </c>
-      <c r="K50" s="15"/>
+      <c r="K50" s="15">
+        <v>1</v>
+      </c>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10591,7 +10847,9 @@
       <c r="D51" s="14">
         <v>7</v>
       </c>
-      <c r="E51" s="15"/>
+      <c r="E51" s="15">
+        <v>13</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="22"/>
@@ -10601,7 +10859,9 @@
       <c r="J51" s="14">
         <v>9</v>
       </c>
-      <c r="K51" s="15"/>
+      <c r="K51" s="15">
+        <v>5</v>
+      </c>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10613,7 +10873,9 @@
       <c r="D52" s="14">
         <v>29</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="15">
+        <v>1</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="22"/>
@@ -10623,7 +10885,9 @@
       <c r="J52" s="14">
         <v>30</v>
       </c>
-      <c r="K52" s="15"/>
+      <c r="K52" s="15">
+        <v>5</v>
+      </c>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10635,7 +10899,9 @@
       <c r="D53" s="16">
         <v>18</v>
       </c>
-      <c r="E53" s="15"/>
+      <c r="E53" s="15">
+        <v>4</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="22"/>
@@ -10645,7 +10911,9 @@
       <c r="J53" s="16">
         <v>20</v>
       </c>
-      <c r="K53" s="15"/>
+      <c r="K53" s="15">
+        <v>18</v>
+      </c>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10657,7 +10925,9 @@
       <c r="D54" s="14">
         <v>93</v>
       </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="15">
+        <v>14</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="22"/>
@@ -10667,7 +10937,9 @@
       <c r="J54" s="14">
         <v>41</v>
       </c>
-      <c r="K54" s="15"/>
+      <c r="K54" s="15">
+        <v>4</v>
+      </c>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -10679,7 +10951,9 @@
       <c r="D55" s="14">
         <v>64</v>
       </c>
-      <c r="E55" s="15"/>
+      <c r="E55" s="15">
+        <v>14</v>
+      </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="22"/>
@@ -10697,7 +10971,9 @@
       <c r="D56" s="14">
         <v>39</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="15">
+        <v>1</v>
+      </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="29"/>
@@ -11395,7 +11671,7 @@
       </c>
       <c r="B89">
         <f>_xlfn.XLOOKUP(H89,D$33:D$56,E$33:E$56,0)+_xlfn.XLOOKUP(H89,J$33:J$56,K$33:K$56,0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C89">
         <f>_xlfn.XLOOKUP(H89,D$62:D$85,E$62:E$85,0)+_xlfn.XLOOKUP(H89,J$62:J$85,K$62:K$85,0)</f>
@@ -11403,10 +11679,10 @@
       </c>
       <c r="E89" s="5" cm="1">
         <f t="array" ref="E89:G89">_xlfn._xlws.SORT(A89:C89,1,-1,TRUE)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F89" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="5">
         <v>0</v>
@@ -11427,7 +11703,7 @@
       </c>
       <c r="B90">
         <f t="shared" ref="B90:B134" si="1">_xlfn.XLOOKUP(H90,D$33:D$56,E$33:E$56,0)+_xlfn.XLOOKUP(H90,J$33:J$56,K$33:K$56,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C90">
         <f t="shared" ref="C90:C134" si="2">_xlfn.XLOOKUP(H90,D$62:D$85,E$62:E$85,0)+_xlfn.XLOOKUP(H90,J$62:J$85,K$62:K$85,0)</f>
@@ -11438,7 +11714,7 @@
         <v>9</v>
       </c>
       <c r="F90" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G90" s="5">
         <v>0</v>
@@ -11459,7 +11735,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <f t="shared" si="2"/>
@@ -11470,7 +11746,7 @@
         <v>19</v>
       </c>
       <c r="F91" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G91" s="5">
         <v>0</v>
@@ -11491,7 +11767,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <f t="shared" si="2"/>
@@ -11502,7 +11778,7 @@
         <v>19</v>
       </c>
       <c r="F92" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G92" s="5">
         <v>0</v>
@@ -11523,7 +11799,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <f t="shared" si="2"/>
@@ -11531,10 +11807,10 @@
       </c>
       <c r="E93" s="5" cm="1">
         <f t="array" ref="E93:G93">_xlfn._xlws.SORT(A93:C93,1,-1,TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="F93" s="5">
         <v>8</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0</v>
       </c>
       <c r="G93" s="5">
         <v>0</v>
@@ -11555,7 +11831,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C94">
         <f t="shared" si="2"/>
@@ -11563,10 +11839,10 @@
       </c>
       <c r="E94" s="5" cm="1">
         <f t="array" ref="E94:G94">_xlfn._xlws.SORT(A94:C94,1,-1,TRUE)</f>
+        <v>9</v>
+      </c>
+      <c r="F94" s="5">
         <v>3</v>
-      </c>
-      <c r="F94" s="5">
-        <v>0</v>
       </c>
       <c r="G94" s="5">
         <v>0</v>
@@ -11587,7 +11863,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <f t="shared" si="2"/>
@@ -11598,7 +11874,7 @@
         <v>4</v>
       </c>
       <c r="F95" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G95" s="5">
         <v>0</v>
@@ -11619,7 +11895,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <f t="shared" si="2"/>
@@ -11627,10 +11903,10 @@
       </c>
       <c r="E96" s="5" cm="1">
         <f t="array" ref="E96:G96">_xlfn._xlws.SORT(A96:C96,1,-1,TRUE)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="5">
         <v>0</v>
@@ -11651,7 +11927,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <f t="shared" si="2"/>
@@ -11662,7 +11938,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G97" s="5">
         <v>0</v>
@@ -11683,7 +11959,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <f t="shared" si="2"/>
@@ -11694,7 +11970,7 @@
         <v>18</v>
       </c>
       <c r="F98" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G98" s="5">
         <v>0</v>
@@ -11715,7 +11991,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C99">
         <f t="shared" si="2"/>
@@ -11726,7 +12002,7 @@
         <v>22</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -11777,7 +12053,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C101">
         <f t="shared" si="2"/>
@@ -11788,7 +12064,7 @@
         <v>19</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -11808,7 +12084,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <f t="shared" si="2"/>
@@ -11816,7 +12092,7 @@
       </c>
       <c r="E102" s="5" cm="1">
         <f t="array" ref="E102:G102">_xlfn._xlws.SORT(A102:C102,1,-1,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -11839,7 +12115,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C103">
         <f t="shared" si="2"/>
@@ -11847,10 +12123,10 @@
       </c>
       <c r="E103" s="5" cm="1">
         <f t="array" ref="E103:G103">_xlfn._xlws.SORT(A103:C103,1,-1,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="F103">
         <v>4</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -11870,7 +12146,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C104">
         <f t="shared" si="2"/>
@@ -11878,10 +12154,10 @@
       </c>
       <c r="E104" s="5" cm="1">
         <f t="array" ref="E104:G104">_xlfn._xlws.SORT(A104:C104,1,-1,TRUE)</f>
+        <v>9</v>
+      </c>
+      <c r="F104">
         <v>4</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -11901,7 +12177,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <f t="shared" si="2"/>
@@ -11909,10 +12185,10 @@
       </c>
       <c r="E105" s="5" cm="1">
         <f t="array" ref="E105:G105">_xlfn._xlws.SORT(A105:C105,1,-1,TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="F105">
         <v>17</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -11932,7 +12208,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <f t="shared" si="2"/>
@@ -11943,7 +12219,7 @@
         <v>6</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -11963,7 +12239,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
         <f t="shared" si="2"/>
@@ -11971,7 +12247,7 @@
       </c>
       <c r="E107" s="5" cm="1">
         <f t="array" ref="E107:G107">_xlfn._xlws.SORT(A107:C107,1,-1,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -11994,7 +12270,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C108">
         <f t="shared" si="2"/>
@@ -12005,7 +12281,7 @@
         <v>22</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -12056,7 +12332,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C110">
         <f t="shared" si="2"/>
@@ -12067,7 +12343,7 @@
         <v>22</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -12087,7 +12363,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C111">
         <f t="shared" si="2"/>
@@ -12095,10 +12371,10 @@
       </c>
       <c r="E111" s="5" cm="1">
         <f t="array" ref="E111:G111">_xlfn._xlws.SORT(A111:C111,1,-1,TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="F111">
         <v>8</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -12118,7 +12394,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C112">
         <f t="shared" si="2"/>
@@ -12129,7 +12405,7 @@
         <v>8</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -12149,7 +12425,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C113">
         <f t="shared" si="2"/>
@@ -12157,10 +12433,10 @@
       </c>
       <c r="E113" s="5" cm="1">
         <f t="array" ref="E113:G113">_xlfn._xlws.SORT(A113:C113,1,-1,TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="F113">
         <v>3</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -12180,7 +12456,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <f t="shared" si="2"/>
@@ -12191,7 +12467,7 @@
         <v>5</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -12211,7 +12487,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C115">
         <f t="shared" si="2"/>
@@ -12219,10 +12495,10 @@
       </c>
       <c r="E115" s="5" cm="1">
         <f t="array" ref="E115:G115">_xlfn._xlws.SORT(A115:C115,1,-1,TRUE)</f>
+        <v>9</v>
+      </c>
+      <c r="F115">
         <v>6</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -12242,7 +12518,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <f t="shared" si="2"/>
@@ -12253,7 +12529,7 @@
         <v>10</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -12273,7 +12549,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C117">
         <f t="shared" si="2"/>
@@ -12284,7 +12560,7 @@
         <v>10</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -12304,7 +12580,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <f t="shared" si="2"/>
@@ -12315,7 +12591,7 @@
         <v>2</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -12335,7 +12611,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C119">
         <f t="shared" si="2"/>
@@ -12346,7 +12622,7 @@
         <v>18</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -12366,7 +12642,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C120">
         <f t="shared" si="2"/>
@@ -12374,10 +12650,10 @@
       </c>
       <c r="E120" s="5" cm="1">
         <f t="array" ref="E120:G120">_xlfn._xlws.SORT(A120:C120,1,-1,TRUE)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -12397,7 +12673,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C121">
         <f t="shared" si="2"/>
@@ -12408,7 +12684,7 @@
         <v>22</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -12428,7 +12704,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <f t="shared" si="2"/>
@@ -12439,7 +12715,7 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -12459,7 +12735,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C123">
         <f t="shared" si="2"/>
@@ -12470,7 +12746,7 @@
         <v>17</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -12490,7 +12766,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <f t="shared" si="2"/>
@@ -12498,7 +12774,7 @@
       </c>
       <c r="E124" s="5" cm="1">
         <f t="array" ref="E124:G124">_xlfn._xlws.SORT(A124:C124,1,-1,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -12521,7 +12797,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C125">
         <f t="shared" si="2"/>
@@ -12532,7 +12808,7 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -12552,7 +12828,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <f t="shared" si="2"/>
@@ -12563,7 +12839,7 @@
         <v>13</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -12707,7 +12983,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C131">
         <f t="shared" si="2"/>
@@ -12715,10 +12991,10 @@
       </c>
       <c r="E131" s="5" cm="1">
         <f t="array" ref="E131:G131">_xlfn._xlws.SORT(A131:C131,1,-1,TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="F131">
         <v>3</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -12738,7 +13014,7 @@
       </c>
       <c r="B132">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C132">
         <f t="shared" si="2"/>
@@ -12746,7 +13022,7 @@
       </c>
       <c r="E132" s="5" cm="1">
         <f t="array" ref="E132:G132">_xlfn._xlws.SORT(A132:C132,1,-1,TRUE)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -12769,7 +13045,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
@@ -12780,7 +13056,7 @@
         <v>12</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -12800,7 +13076,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -12811,7 +13087,7 @@
         <v>14</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12900,16 +13176,16 @@
         <v>22</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E2" t="str">
-        <v>2e</v>
+        <v>2g</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -12917,16 +13193,16 @@
         <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E3" t="str">
-        <v>2h</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -12934,16 +13210,16 @@
         <v>22</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E4" t="str">
-        <v>2h</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -12951,33 +13227,33 @@
         <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E5" t="str">
-        <v>2g</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E6" t="str">
-        <v>2c</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -12985,16 +13261,16 @@
         <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7" t="str">
-        <v>2c</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -13002,33 +13278,33 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E8" t="str">
-        <v>2d</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E9" t="str">
-        <v>2e</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -13036,33 +13312,33 @@
         <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E10" t="str">
-        <v>2g</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E11" t="str">
-        <v>2d</v>
+        <v>2g</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -13070,7 +13346,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -13087,7 +13363,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -13104,67 +13380,67 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E14" t="str">
-        <v>2b</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E15" t="str">
-        <v>2f</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E16" t="str">
-        <v>2a</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E17" t="str">
-        <v>2a</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -13172,208 +13448,208 @@
         <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E18" t="str">
-        <v>2b</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E19" t="str">
-        <v>2c</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E20" t="str">
-        <v>2g</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E21" t="str">
-        <v>2c</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E22" t="str">
-        <v>2h</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E23" t="str">
-        <v>2h</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E24" t="str">
-        <v>2e</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E25" s="17" t="str">
-        <v>2d</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E26" t="str">
-        <v>2a</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E27" t="str">
-        <v>2a</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E28" t="str">
-        <v>2e</v>
+        <v>2g</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E29" t="str">
-        <v>2d</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -13382,52 +13658,52 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E30" s="17" t="str">
-        <v>2d</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E31" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E32" t="str">
-        <v>2c</v>
+        <v>2g</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
         <v>3</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -13441,67 +13717,67 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E34" t="str">
-        <v>2f</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E35" t="str">
-        <v>2a</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E36" t="str">
-        <v>2c</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" t="str">
         <v>2e</v>
@@ -13509,7 +13785,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -13518,27 +13794,27 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E38" t="str">
-        <v>2h</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E39" t="str">
-        <v>2g</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -13552,10 +13828,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E40" t="str">
-        <v>2b</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -13569,15 +13845,15 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E41" t="str">
-        <v>2f</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -13586,15 +13862,15 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E42" t="str">
-        <v>2e</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -13603,15 +13879,15 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E43" t="str">
-        <v>2d</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -13620,15 +13896,15 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E44" t="str">
-        <v>2h</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -13637,10 +13913,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E45" t="str">
-        <v>2b</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -13654,10 +13930,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E46" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -13671,10 +13947,10 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E47" t="str">
-        <v>2f</v>
+        <v>2b</v>
       </c>
     </row>
   </sheetData>
@@ -13688,8 +13964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009128B-BC04-AE43-96E7-DEE798181085}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/KWI-RoboChallange_Rangliste_FS2025.xlsx
+++ b/KWI-RoboChallange_Rangliste_FS2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillagretsch/KWI-RoboChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807ED59E-7CF7-574D-8E78-49A2A3EA5CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A2CFF-95AD-004B-8898-32F96126959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linienfolger-Spielplan" sheetId="10" r:id="rId1"/>
@@ -3471,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E431A25-7996-7A46-826A-C481A5ABF70E}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55:O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="V4">
         <f>SUMIF(D$4:D$100,U4,E$4:E$100)+SUMIF(G$4:G$100,U4,F$4:F$100)+SUMIF(M$4:M$100,U4,N$4:N$100)+SUMIF(P$4:P$100,U4,O$4:O$100)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W4">
         <f>SUMIF(D$4:D$100,U4,A$4:A$100)+SUMIF(G$4:G$100,U4,I$4:I$100)+SUMIF(M$4:M$100,U4,J$4:J$100)+SUMIF(P$4:P$100,U4,R$4:R$100)</f>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="V5">
         <f t="shared" ref="V5:V49" si="4">SUMIF(D$4:D$100,U5,E$4:E$100)+SUMIF(G$4:G$100,U5,F$4:F$100)+SUMIF(M$4:M$100,U5,N$4:N$100)+SUMIF(P$4:P$100,U5,O$4:O$100)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W5">
         <f t="shared" ref="W5:W49" si="5">SUMIF(D$4:D$100,U5,A$4:A$100)+SUMIF(G$4:G$100,U5,I$4:I$100)+SUMIF(M$4:M$100,U5,J$4:J$100)+SUMIF(P$4:P$100,U5,R$4:R$100)</f>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="W6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3867,11 +3867,11 @@
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="W7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W8">
         <f t="shared" si="5"/>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="V9">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="W9">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4081,11 +4081,11 @@
       </c>
       <c r="V10">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="W10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W11">
         <f t="shared" si="5"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W12">
         <f t="shared" si="5"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W13">
         <f t="shared" si="5"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W14">
         <f t="shared" si="5"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W15">
         <f t="shared" si="5"/>
@@ -4450,11 +4450,11 @@
       </c>
       <c r="V16">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="W16">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W17">
         <f t="shared" si="5"/>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W18">
         <f t="shared" si="5"/>
@@ -4558,11 +4558,11 @@
       </c>
       <c r="V19">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="W19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W20">
         <f t="shared" si="5"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W21">
         <f t="shared" si="5"/>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W22">
         <f t="shared" si="5"/>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W23">
         <f t="shared" si="5"/>
@@ -4904,11 +4904,11 @@
       </c>
       <c r="V24">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="W24">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W25">
         <f t="shared" si="5"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="W26">
         <f t="shared" si="5"/>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W27">
         <f t="shared" si="5"/>
@@ -5188,11 +5188,11 @@
       </c>
       <c r="V28">
         <f>SUMIF(D$4:D$100,U28,E$4:E$100)+SUMIF(G$4:G$100,U28,F$4:F$100)+SUMIF(M$4:M$100,U28,N$4:N$100)+SUMIF(P$4:P$100,U28,O$4:O$100)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W28">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5258,11 +5258,11 @@
       </c>
       <c r="V29">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W30">
         <f t="shared" si="5"/>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W31">
         <f t="shared" si="5"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W32">
         <f t="shared" si="5"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W33">
         <f t="shared" si="5"/>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="V34">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W34">
         <f t="shared" si="5"/>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W35">
         <f t="shared" si="5"/>
@@ -5595,11 +5595,11 @@
       </c>
       <c r="V36">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W36">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -5657,11 +5657,11 @@
       </c>
       <c r="V37">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="W37">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5731,11 +5731,11 @@
       </c>
       <c r="V38">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W38">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W39">
         <f t="shared" si="5"/>
@@ -5871,11 +5871,11 @@
       </c>
       <c r="V40">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="W40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W41">
         <f t="shared" si="5"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W42">
         <f t="shared" si="5"/>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W43">
         <f t="shared" si="5"/>
@@ -6155,11 +6155,11 @@
       </c>
       <c r="V44">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W44">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W45">
         <f t="shared" si="5"/>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W46">
         <f t="shared" si="5"/>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W47">
         <f t="shared" si="5"/>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W48">
         <f t="shared" si="5"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="W49">
         <f t="shared" si="5"/>
@@ -6632,9 +6632,9 @@
       <c r="R54" s="5"/>
     </row>
     <row r="55" spans="1:23" ht="22" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="str">
+      <c r="A55" s="7">
         <f>IF(E55 &gt; F55, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>73</v>
@@ -6645,8 +6645,12 @@
       <c r="D55" s="14">
         <v>51</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="E55" s="15">
+        <v>7</v>
+      </c>
+      <c r="F55" s="15">
+        <v>3</v>
+      </c>
       <c r="G55" s="14">
         <v>78</v>
       </c>
@@ -6657,9 +6661,9 @@
         <f t="shared" ref="I55:I66" si="14">IF(F55 &gt; E55, 1, "")</f>
         <v/>
       </c>
-      <c r="J55" s="18" t="str">
+      <c r="J55" s="18">
         <f t="shared" ref="J55:J66" si="15">IF(N55 &gt; O55, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K55" s="21" t="s">
         <v>73</v>
@@ -6670,8 +6674,12 @@
       <c r="M55" s="14">
         <v>52</v>
       </c>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
+      <c r="N55" s="15">
+        <v>9</v>
+      </c>
+      <c r="O55" s="15">
+        <v>1</v>
+      </c>
       <c r="P55" s="14">
         <v>79</v>
       </c>
@@ -6695,8 +6703,12 @@
       <c r="D56" s="14">
         <v>1</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
+      <c r="E56" s="15">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15">
+        <v>5</v>
+      </c>
       <c r="G56" s="14">
         <v>31</v>
       </c>
@@ -6718,23 +6730,27 @@
       <c r="M56" s="14">
         <v>2</v>
       </c>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
+      <c r="N56" s="15">
+        <v>3</v>
+      </c>
+      <c r="O56" s="15">
+        <v>7</v>
+      </c>
       <c r="P56" s="14">
         <v>33</v>
       </c>
       <c r="Q56" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R56" t="str">
+      <c r="R56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="22" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="str">
+      <c r="A57" s="7">
         <f t="shared" si="17"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="14" t="s">
@@ -6743,8 +6759,12 @@
       <c r="D57" s="14">
         <v>14</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="E57" s="15">
+        <v>6</v>
+      </c>
+      <c r="F57" s="15">
+        <v>4</v>
+      </c>
       <c r="G57" s="14">
         <v>89</v>
       </c>
@@ -6766,8 +6786,12 @@
       <c r="M57" s="14">
         <v>16</v>
       </c>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
+      <c r="N57" s="15">
+        <v>5</v>
+      </c>
+      <c r="O57" s="15">
+        <v>5</v>
+      </c>
       <c r="P57" s="14">
         <v>92</v>
       </c>
@@ -6791,17 +6815,21 @@
       <c r="D58" s="14">
         <v>65</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="15">
+        <v>1</v>
+      </c>
+      <c r="F58" s="15">
+        <v>9</v>
+      </c>
       <c r="G58" s="14">
         <v>43</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I58" s="7" t="str">
+      <c r="I58" s="7">
         <f t="shared" si="14"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J58" s="18" t="str">
         <f t="shared" si="15"/>
@@ -6814,8 +6842,12 @@
       <c r="M58" s="14">
         <v>63</v>
       </c>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
+      <c r="N58" s="15">
+        <v>5</v>
+      </c>
+      <c r="O58" s="15">
+        <v>5</v>
+      </c>
       <c r="P58" s="14">
         <v>45</v>
       </c>
@@ -6839,8 +6871,12 @@
       <c r="D59" s="14">
         <v>55</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="E59" s="15">
+        <v>5</v>
+      </c>
+      <c r="F59" s="15">
+        <v>5</v>
+      </c>
       <c r="G59" s="14">
         <v>82</v>
       </c>
@@ -6862,23 +6898,27 @@
       <c r="M59" s="14">
         <v>60</v>
       </c>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
+      <c r="N59" s="15">
+        <v>3</v>
+      </c>
+      <c r="O59" s="15">
+        <v>7</v>
+      </c>
       <c r="P59" s="14">
         <v>83</v>
       </c>
       <c r="Q59" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R59" t="str">
+      <c r="R59">
         <f t="shared" si="16"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="22" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="str">
+      <c r="A60" s="7">
         <f t="shared" si="17"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="14" t="s">
@@ -6887,8 +6927,12 @@
       <c r="D60" s="14">
         <v>3</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="E60" s="15">
+        <v>6</v>
+      </c>
+      <c r="F60" s="15">
+        <v>4</v>
+      </c>
       <c r="G60" s="14">
         <v>34</v>
       </c>
@@ -6899,9 +6943,9 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J60" s="18" t="str">
+      <c r="J60" s="18">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K60" s="23"/>
       <c r="L60" s="14" t="s">
@@ -6910,8 +6954,12 @@
       <c r="M60" s="14">
         <v>4</v>
       </c>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
+      <c r="N60" s="15">
+        <v>6</v>
+      </c>
+      <c r="O60" s="15">
+        <v>4</v>
+      </c>
       <c r="P60" s="14">
         <v>37</v>
       </c>
@@ -6937,8 +6985,12 @@
       <c r="D61" s="14">
         <v>19</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
+      <c r="E61" s="15">
+        <v>5</v>
+      </c>
+      <c r="F61" s="15">
+        <v>5</v>
+      </c>
       <c r="G61" s="14">
         <v>94</v>
       </c>
@@ -6949,9 +7001,9 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J61" s="18" t="str">
+      <c r="J61" s="18">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K61" s="28" t="s">
         <v>74</v>
@@ -6962,8 +7014,12 @@
       <c r="M61" s="14">
         <v>69</v>
       </c>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
+      <c r="N61" s="15">
+        <v>6</v>
+      </c>
+      <c r="O61" s="15">
+        <v>4</v>
+      </c>
       <c r="P61" s="14">
         <v>49</v>
       </c>
@@ -6976,9 +7032,9 @@
       </c>
     </row>
     <row r="62" spans="1:23" ht="22" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="str">
+      <c r="A62" s="7">
         <f t="shared" si="17"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="14" t="s">
@@ -6987,8 +7043,12 @@
       <c r="D62" s="14">
         <v>67</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
+      <c r="E62" s="15">
+        <v>6</v>
+      </c>
+      <c r="F62" s="15">
+        <v>4</v>
+      </c>
       <c r="G62" s="14">
         <v>47</v>
       </c>
@@ -7010,17 +7070,21 @@
       <c r="M62" s="14">
         <v>59</v>
       </c>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
+      <c r="N62" s="15">
+        <v>4</v>
+      </c>
+      <c r="O62" s="15">
+        <v>6</v>
+      </c>
       <c r="P62" s="14">
         <v>75</v>
       </c>
       <c r="Q62" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R62" t="str">
+      <c r="R62">
         <f t="shared" si="16"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -7035,8 +7099,12 @@
       <c r="D63" s="14">
         <v>57</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
+      <c r="E63" s="15">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15">
+        <v>5</v>
+      </c>
       <c r="G63" s="14">
         <v>73</v>
       </c>
@@ -7047,9 +7115,9 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J63" s="18" t="str">
+      <c r="J63" s="18">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K63" s="22"/>
       <c r="L63" s="14" t="s">
@@ -7058,8 +7126,12 @@
       <c r="M63" s="14">
         <v>10</v>
       </c>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
+      <c r="N63" s="15">
+        <v>6</v>
+      </c>
+      <c r="O63" s="15">
+        <v>4</v>
+      </c>
       <c r="P63" s="14">
         <v>28</v>
       </c>
@@ -7083,17 +7155,21 @@
       <c r="D64" s="14">
         <v>6</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+      <c r="E64" s="15">
+        <v>4</v>
+      </c>
+      <c r="F64" s="15">
+        <v>6</v>
+      </c>
       <c r="G64" s="14">
         <v>26</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="7" t="str">
+      <c r="I64" s="7">
         <f t="shared" si="14"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J64" s="18" t="str">
         <f t="shared" si="15"/>
@@ -7106,8 +7182,12 @@
       <c r="M64" s="14">
         <v>25</v>
       </c>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
+      <c r="N64" s="15">
+        <v>5</v>
+      </c>
+      <c r="O64" s="15">
+        <v>5</v>
+      </c>
       <c r="P64" s="14">
         <v>88</v>
       </c>
@@ -7131,8 +7211,12 @@
       <c r="D65" s="14">
         <v>22</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
+      <c r="E65" s="15">
+        <v>5</v>
+      </c>
+      <c r="F65" s="15">
+        <v>5</v>
+      </c>
       <c r="G65" s="14">
         <v>85</v>
       </c>
@@ -7154,8 +7238,12 @@
       <c r="M65" s="14">
         <v>21</v>
       </c>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
+      <c r="N65" s="15">
+        <v>5</v>
+      </c>
+      <c r="O65" s="15">
+        <v>5</v>
+      </c>
       <c r="P65" s="14">
         <v>40</v>
       </c>
@@ -7168,9 +7256,9 @@
       </c>
     </row>
     <row r="66" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="str">
+      <c r="A66" s="7">
         <f>IF(E66 &gt; F66, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="14" t="s">
@@ -7179,8 +7267,12 @@
       <c r="D66" s="14">
         <v>72</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
+      <c r="E66" s="15">
+        <v>6</v>
+      </c>
+      <c r="F66" s="15">
+        <v>4</v>
+      </c>
       <c r="G66" s="14">
         <v>38</v>
       </c>
@@ -8919,10 +9011,10 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8933,10 +9025,10 @@
         <v>52</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8947,10 +9039,10 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8961,7 +9053,7 @@
         <v>63</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -8975,10 +9067,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8986,10 +9078,10 @@
         <v>2c</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -8997,27 +9089,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <v>2c</v>
+        <v>2g</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <v>2d</v>
+        <v>2c</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -9025,13 +9117,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <v>2h</v>
+        <v>2d</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -9039,13 +9131,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <v>2g</v>
+        <v>2f</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -9053,13 +9145,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <v>2f</v>
+        <v>2d</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -9067,13 +9159,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <v>2a</v>
+        <v>2d</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -9081,30 +9173,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <v>2d</v>
+        <v>2h</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <v>2h</v>
+        <v>2a</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -9112,27 +9204,27 @@
         <v>2a</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <v>2f</v>
+        <v>2b</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9140,10 +9232,10 @@
         <v>2f</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -9151,13 +9243,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <v>2d</v>
+        <v>2f</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -9165,27 +9257,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <v>2d</v>
+        <v>2c</v>
       </c>
       <c r="B20">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <v>2g</v>
+        <v>2d</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -9193,13 +9285,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <v>2f</v>
+        <v>2h</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -9207,27 +9299,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <v>2d</v>
+        <v>2a</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>2c</v>
+        <v>2f</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -9235,55 +9327,55 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <v>2a</v>
+        <v>2g</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>2b</v>
+        <v>2d</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <v>2e</v>
+        <v>2b</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -9291,44 +9383,44 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>2h</v>
+        <v>2e</v>
       </c>
       <c r="B29">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
       <c r="B30">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <v>2g</v>
+        <v>2b</v>
       </c>
       <c r="B31">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9336,38 +9428,38 @@
         <v>2e</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>2a</v>
+        <v>2h</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>2e</v>
+        <v>2h</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -9375,13 +9467,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>2h</v>
+        <v>2a</v>
       </c>
       <c r="B35">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9389,13 +9481,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <v>2a</v>
+        <v>2b</v>
       </c>
       <c r="B36">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -9403,41 +9495,41 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <v>2b</v>
+        <v>2f</v>
       </c>
       <c r="B37">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <v>2f</v>
+        <v>2c</v>
       </c>
       <c r="B38">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <v>2c</v>
+        <v>2a</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -9445,16 +9537,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <v>2e</v>
+        <v>2g</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -9465,7 +9557,7 @@
         <v>37</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -9473,16 +9565,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
       <c r="B42">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -9490,13 +9582,13 @@
         <v>2b</v>
       </c>
       <c r="B43">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -9504,24 +9596,24 @@
         <v>2e</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>2c</v>
+        <v>2b</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -9529,13 +9621,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>2e</v>
+        <v>2h</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9543,13 +9635,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <v>2h</v>
+        <v>2c</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -9565,7 +9657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8B5130-A9A4-3D41-9E23-ABC295084148}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="110" workbookViewId="0">
       <selection activeCell="K33" sqref="K33:K54"/>
     </sheetView>
   </sheetViews>

--- a/KWI-RoboChallange_Rangliste_FS2025.xlsx
+++ b/KWI-RoboChallange_Rangliste_FS2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillagretsch/KWI-RoboChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A2CFF-95AD-004B-8898-32F96126959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD309D6-98A8-E242-A478-927BC8FC9B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3471,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E431A25-7996-7A46-826A-C481A5ABF70E}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55:O65"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3657,11 +3657,11 @@
       </c>
       <c r="V4">
         <f>SUMIF(D$4:D$100,U4,E$4:E$100)+SUMIF(G$4:G$100,U4,F$4:F$100)+SUMIF(M$4:M$100,U4,N$4:N$100)+SUMIF(P$4:P$100,U4,O$4:O$100)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="W4">
         <f>SUMIF(D$4:D$100,U4,A$4:A$100)+SUMIF(G$4:G$100,U4,I$4:I$100)+SUMIF(M$4:M$100,U4,J$4:J$100)+SUMIF(P$4:P$100,U4,R$4:R$100)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="V5">
         <f t="shared" ref="V5:V49" si="4">SUMIF(D$4:D$100,U5,E$4:E$100)+SUMIF(G$4:G$100,U5,F$4:F$100)+SUMIF(M$4:M$100,U5,N$4:N$100)+SUMIF(P$4:P$100,U5,O$4:O$100)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W5">
         <f t="shared" ref="W5:W49" si="5">SUMIF(D$4:D$100,U5,A$4:A$100)+SUMIF(G$4:G$100,U5,I$4:I$100)+SUMIF(M$4:M$100,U5,J$4:J$100)+SUMIF(P$4:P$100,U5,R$4:R$100)</f>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="W6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W7">
         <f t="shared" si="5"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W8">
         <f t="shared" si="5"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="W9">
         <f t="shared" si="5"/>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W10">
         <f t="shared" si="5"/>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="W11">
         <f t="shared" si="5"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W12">
         <f t="shared" si="5"/>
@@ -4291,11 +4291,11 @@
       </c>
       <c r="V13">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="W13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W14">
         <f t="shared" si="5"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W15">
         <f t="shared" si="5"/>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W16">
         <f t="shared" si="5"/>
@@ -4484,11 +4484,11 @@
       </c>
       <c r="V17">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="W17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="27" x14ac:dyDescent="0.35">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="W18">
         <f t="shared" si="5"/>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="W19">
         <f t="shared" si="5"/>
@@ -4620,11 +4620,11 @@
       </c>
       <c r="V20">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="W20">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4694,11 +4694,11 @@
       </c>
       <c r="V21">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="W21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W22">
         <f t="shared" si="5"/>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="W23">
         <f t="shared" si="5"/>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="W24">
         <f t="shared" si="5"/>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W25">
         <f t="shared" si="5"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W26">
         <f t="shared" si="5"/>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W27">
         <f t="shared" si="5"/>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="V28">
         <f>SUMIF(D$4:D$100,U28,E$4:E$100)+SUMIF(G$4:G$100,U28,F$4:F$100)+SUMIF(M$4:M$100,U28,N$4:N$100)+SUMIF(P$4:P$100,U28,O$4:O$100)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W28">
         <f t="shared" si="5"/>
@@ -5258,11 +5258,11 @@
       </c>
       <c r="V29">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W30">
         <f t="shared" si="5"/>
@@ -5398,11 +5398,11 @@
       </c>
       <c r="V31">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="W31">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W32">
         <f t="shared" si="5"/>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="V33">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="W33">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
@@ -5521,11 +5521,11 @@
       </c>
       <c r="V34">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="W34">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="27" x14ac:dyDescent="0.35">
@@ -5557,11 +5557,11 @@
       </c>
       <c r="V35">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="W35">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5595,11 +5595,11 @@
       </c>
       <c r="V36">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="W36">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -5657,11 +5657,11 @@
       </c>
       <c r="V37">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="W37">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5731,11 +5731,11 @@
       </c>
       <c r="V38">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="W38">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="W39">
         <f t="shared" si="5"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W40">
         <f t="shared" si="5"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="W41">
         <f t="shared" si="5"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W42">
         <f t="shared" si="5"/>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W43">
         <f t="shared" si="5"/>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W44">
         <f t="shared" si="5"/>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W45">
         <f t="shared" si="5"/>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W46">
         <f t="shared" si="5"/>
@@ -6365,11 +6365,11 @@
       </c>
       <c r="V47">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="W47">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6435,11 +6435,11 @@
       </c>
       <c r="V48">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="W48">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6490,11 +6490,11 @@
       </c>
       <c r="V49">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="W49">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -7444,21 +7444,25 @@
       <c r="D72" s="14">
         <v>51</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
+      <c r="E72" s="15">
+        <v>4</v>
+      </c>
+      <c r="F72" s="15">
+        <v>6</v>
+      </c>
       <c r="G72" s="14">
         <v>3</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I72" s="7" t="str">
+      <c r="I72" s="7">
         <f t="shared" ref="I72:I83" si="18">IF(F72 &gt; E72, 1, "")</f>
-        <v/>
-      </c>
-      <c r="J72" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J72" s="18">
         <f t="shared" ref="J72:J83" si="19">IF(N72 &gt; O72, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>76</v>
@@ -7469,8 +7473,12 @@
       <c r="M72" s="14">
         <v>52</v>
       </c>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
+      <c r="N72" s="15">
+        <v>7</v>
+      </c>
+      <c r="O72" s="15">
+        <v>3</v>
+      </c>
       <c r="P72" s="14">
         <v>4</v>
       </c>
@@ -7494,8 +7502,12 @@
       <c r="D73" s="14">
         <v>73</v>
       </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
+      <c r="E73" s="15">
+        <v>5</v>
+      </c>
+      <c r="F73" s="15">
+        <v>5</v>
+      </c>
       <c r="G73" s="14">
         <v>31</v>
       </c>
@@ -7517,8 +7529,12 @@
       <c r="M73" s="14">
         <v>75</v>
       </c>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
+      <c r="N73" s="15">
+        <v>5</v>
+      </c>
+      <c r="O73" s="15">
+        <v>5</v>
+      </c>
       <c r="P73" s="14">
         <v>33</v>
       </c>
@@ -7542,17 +7558,21 @@
       <c r="D74" s="14">
         <v>14</v>
       </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
+      <c r="E74" s="15">
+        <v>3</v>
+      </c>
+      <c r="F74" s="15">
+        <v>7</v>
+      </c>
       <c r="G74" s="14">
         <v>67</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I74" s="7" t="str">
+      <c r="I74" s="7">
         <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J74" s="18" t="str">
         <f t="shared" si="19"/>
@@ -7565,17 +7585,21 @@
       <c r="M74" s="14">
         <v>16</v>
       </c>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
+      <c r="N74" s="15">
+        <v>3</v>
+      </c>
+      <c r="O74" s="15">
+        <v>7</v>
+      </c>
       <c r="P74" s="14">
         <v>69</v>
       </c>
       <c r="Q74" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R74" t="str">
+      <c r="R74">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="22" x14ac:dyDescent="0.2">
@@ -7590,8 +7614,12 @@
       <c r="D75" s="14">
         <v>85</v>
       </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
+      <c r="E75" s="15">
+        <v>5</v>
+      </c>
+      <c r="F75" s="15">
+        <v>5</v>
+      </c>
       <c r="G75" s="14">
         <v>43</v>
       </c>
@@ -7613,8 +7641,12 @@
       <c r="M75" s="14">
         <v>88</v>
       </c>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
+      <c r="N75" s="15">
+        <v>5</v>
+      </c>
+      <c r="O75" s="15">
+        <v>5</v>
+      </c>
       <c r="P75" s="14">
         <v>45</v>
       </c>
@@ -7638,8 +7670,12 @@
       <c r="D76" s="14">
         <v>55</v>
       </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
+      <c r="E76" s="15">
+        <v>5</v>
+      </c>
+      <c r="F76" s="15">
+        <v>5</v>
+      </c>
       <c r="G76" s="14">
         <v>6</v>
       </c>
@@ -7650,9 +7686,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J76" s="18" t="str">
+      <c r="J76" s="18">
         <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K76" s="22"/>
       <c r="L76" s="14" t="s">
@@ -7661,8 +7697,12 @@
       <c r="M76" s="14">
         <v>60</v>
       </c>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
+      <c r="N76" s="15">
+        <v>6</v>
+      </c>
+      <c r="O76" s="15">
+        <v>4</v>
+      </c>
       <c r="P76" s="14">
         <v>10</v>
       </c>
@@ -7686,17 +7726,21 @@
       <c r="D77" s="14">
         <v>78</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
+      <c r="E77" s="15">
+        <v>3</v>
+      </c>
+      <c r="F77" s="15">
+        <v>7</v>
+      </c>
       <c r="G77" s="14">
         <v>34</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I77" s="7" t="str">
+      <c r="I77" s="7">
         <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J77" s="18" t="str">
         <f t="shared" si="19"/>
@@ -7709,17 +7753,21 @@
       <c r="M77" s="14">
         <v>79</v>
       </c>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
+      <c r="N77" s="15">
+        <v>4</v>
+      </c>
+      <c r="O77" s="15">
+        <v>6</v>
+      </c>
       <c r="P77" s="14">
         <v>37</v>
       </c>
       <c r="Q77" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R77" t="str">
+      <c r="R77">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="22" x14ac:dyDescent="0.2">
@@ -7736,21 +7784,25 @@
       <c r="D78" s="14">
         <v>19</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
+      <c r="E78" s="15">
+        <v>2</v>
+      </c>
+      <c r="F78" s="15">
+        <v>8</v>
+      </c>
       <c r="G78" s="14">
         <v>72</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I78" s="7" t="str">
+      <c r="I78" s="7">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J78" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J78" s="18">
         <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K78" s="28" t="s">
         <v>77</v>
@@ -7761,8 +7813,12 @@
       <c r="M78" s="14">
         <v>21</v>
       </c>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
+      <c r="N78" s="15">
+        <v>6</v>
+      </c>
+      <c r="O78" s="15">
+        <v>4</v>
+      </c>
       <c r="P78" s="14">
         <v>49</v>
       </c>
@@ -7775,9 +7831,9 @@
       </c>
     </row>
     <row r="79" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="str">
+      <c r="A79" s="7">
         <f t="shared" si="21"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="14" t="s">
@@ -7786,8 +7842,12 @@
       <c r="D79" s="14">
         <v>89</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
+      <c r="E79" s="15">
+        <v>7</v>
+      </c>
+      <c r="F79" s="15">
+        <v>3</v>
+      </c>
       <c r="G79" s="14">
         <v>47</v>
       </c>
@@ -7798,9 +7858,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J79" s="18" t="str">
+      <c r="J79" s="18">
         <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K79" s="22"/>
       <c r="L79" s="14" t="s">
@@ -7809,8 +7869,12 @@
       <c r="M79" s="14">
         <v>59</v>
       </c>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
+      <c r="N79" s="15">
+        <v>6</v>
+      </c>
+      <c r="O79" s="15">
+        <v>4</v>
+      </c>
       <c r="P79" s="14">
         <v>2</v>
       </c>
@@ -7834,17 +7898,21 @@
       <c r="D80" s="14">
         <v>57</v>
       </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
+      <c r="E80" s="15">
+        <v>4</v>
+      </c>
+      <c r="F80" s="15">
+        <v>6</v>
+      </c>
       <c r="G80" s="14">
         <v>1</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I80" s="7" t="str">
+      <c r="I80" s="7">
         <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J80" s="18" t="str">
         <f t="shared" si="19"/>
@@ -7857,17 +7925,21 @@
       <c r="M80" s="14">
         <v>83</v>
       </c>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
+      <c r="N80" s="15">
+        <v>3</v>
+      </c>
+      <c r="O80" s="15">
+        <v>7</v>
+      </c>
       <c r="P80" s="14">
         <v>28</v>
       </c>
       <c r="Q80" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R80" t="str">
+      <c r="R80">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="22" x14ac:dyDescent="0.2">
@@ -7882,8 +7954,12 @@
       <c r="D81" s="14">
         <v>82</v>
       </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
+      <c r="E81" s="15">
+        <v>5</v>
+      </c>
+      <c r="F81" s="15">
+        <v>5</v>
+      </c>
       <c r="G81" s="14">
         <v>26</v>
       </c>
@@ -7905,17 +7981,21 @@
       <c r="M81" s="14">
         <v>25</v>
       </c>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
+      <c r="N81" s="15">
+        <v>3</v>
+      </c>
+      <c r="O81" s="15">
+        <v>7</v>
+      </c>
       <c r="P81" s="14">
         <v>63</v>
       </c>
       <c r="Q81" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R81" t="str">
+      <c r="R81">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="22" x14ac:dyDescent="0.2">
@@ -7930,21 +8010,25 @@
       <c r="D82" s="14">
         <v>22</v>
       </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
+      <c r="E82" s="15">
+        <v>4</v>
+      </c>
+      <c r="F82" s="15">
+        <v>6</v>
+      </c>
       <c r="G82" s="14">
         <v>65</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="7" t="str">
+      <c r="I82" s="7">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J82" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J82" s="18">
         <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K82" s="22"/>
       <c r="L82" s="14" t="s">
@@ -7953,8 +8037,12 @@
       <c r="M82" s="14">
         <v>92</v>
       </c>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
+      <c r="N82" s="15">
+        <v>6</v>
+      </c>
+      <c r="O82" s="15">
+        <v>4</v>
+      </c>
       <c r="P82" s="14">
         <v>40</v>
       </c>
@@ -7967,9 +8055,9 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="str">
+      <c r="A83" s="7">
         <f t="shared" si="21"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="14" t="s">
@@ -7978,8 +8066,12 @@
       <c r="D83" s="14">
         <v>94</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
+      <c r="E83" s="15">
+        <v>7</v>
+      </c>
+      <c r="F83" s="15">
+        <v>3</v>
+      </c>
       <c r="G83" s="14">
         <v>38</v>
       </c>
@@ -9011,7 +9103,7 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -9025,10 +9117,10 @@
         <v>52</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9039,10 +9131,10 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9053,21 +9145,21 @@
         <v>63</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <v>2c</v>
+        <v>2g</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -9078,24 +9170,24 @@
         <v>2c</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <v>2g</v>
+        <v>2c</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -9103,16 +9195,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <v>2c</v>
+        <v>2f</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -9120,24 +9212,24 @@
         <v>2d</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <v>2f</v>
+        <v>2c</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -9148,10 +9240,10 @@
         <v>2d</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -9162,10 +9254,10 @@
         <v>2d</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -9173,13 +9265,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <v>2h</v>
+        <v>2f</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -9187,41 +9279,41 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <v>2a</v>
+        <v>2g</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <v>2a</v>
+        <v>2c</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <v>2b</v>
+        <v>2d</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -9229,16 +9321,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <v>2f</v>
+        <v>2a</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -9246,10 +9338,10 @@
         <v>2f</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -9257,13 +9349,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <v>2c</v>
+        <v>2a</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -9271,27 +9363,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <v>2d</v>
+        <v>2a</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <v>2h</v>
+        <v>2e</v>
       </c>
       <c r="B22">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -9299,13 +9391,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <v>2a</v>
+        <v>2f</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -9313,41 +9405,41 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>2f</v>
+        <v>2d</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <v>2g</v>
+        <v>2h</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>2d</v>
+        <v>2b</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -9355,16 +9447,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <v>2e</v>
+        <v>2h</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -9375,7 +9467,7 @@
         <v>73</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -9383,27 +9475,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>2e</v>
+        <v>2f</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <v>2e</v>
+        <v>2b</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -9411,27 +9503,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <v>2b</v>
+        <v>2h</v>
       </c>
       <c r="B31">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <v>2e</v>
+        <v>2a</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -9439,13 +9531,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>2h</v>
+        <v>2b</v>
       </c>
       <c r="B33">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -9453,69 +9545,69 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>2h</v>
+        <v>2a</v>
       </c>
       <c r="B34">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>2a</v>
+        <v>2g</v>
       </c>
       <c r="B35">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <v>2b</v>
+        <v>2d</v>
       </c>
       <c r="B36">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <v>2f</v>
+        <v>2c</v>
       </c>
       <c r="B37">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <v>2c</v>
+        <v>2e</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -9523,55 +9615,55 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <v>2a</v>
+        <v>2e</v>
       </c>
       <c r="B39">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <v>2g</v>
+        <v>2h</v>
       </c>
       <c r="B40">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <v>2d</v>
+        <v>2e</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <v>2e</v>
+        <v>2b</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -9579,16 +9671,16 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
       <c r="B43">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -9596,24 +9688,24 @@
         <v>2e</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>2b</v>
+        <v>2h</v>
       </c>
       <c r="B45">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -9621,13 +9713,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>2h</v>
+        <v>2b</v>
       </c>
       <c r="B46">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9641,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>0</v>

--- a/KWI-RoboChallange_Rangliste_FS2025.xlsx
+++ b/KWI-RoboChallange_Rangliste_FS2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillagretsch/KWI-RoboChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD309D6-98A8-E242-A478-927BC8FC9B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9385320B-F09F-D74F-AA2D-A457C54C9A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3471,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E431A25-7996-7A46-826A-C481A5ABF70E}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="R84" sqref="R84"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="S101" sqref="S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3657,11 +3657,11 @@
       </c>
       <c r="V4">
         <f>SUMIF(D$4:D$100,U4,E$4:E$100)+SUMIF(G$4:G$100,U4,F$4:F$100)+SUMIF(M$4:M$100,U4,N$4:N$100)+SUMIF(P$4:P$100,U4,O$4:O$100)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W4">
         <f>SUMIF(D$4:D$100,U4,A$4:A$100)+SUMIF(G$4:G$100,U4,I$4:I$100)+SUMIF(M$4:M$100,U4,J$4:J$100)+SUMIF(P$4:P$100,U4,R$4:R$100)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="V5">
         <f t="shared" ref="V5:V49" si="4">SUMIF(D$4:D$100,U5,E$4:E$100)+SUMIF(G$4:G$100,U5,F$4:F$100)+SUMIF(M$4:M$100,U5,N$4:N$100)+SUMIF(P$4:P$100,U5,O$4:O$100)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W5">
         <f t="shared" ref="W5:W49" si="5">SUMIF(D$4:D$100,U5,A$4:A$100)+SUMIF(G$4:G$100,U5,I$4:I$100)+SUMIF(M$4:M$100,U5,J$4:J$100)+SUMIF(P$4:P$100,U5,R$4:R$100)</f>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="W6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3867,11 +3867,11 @@
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="W7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W8">
         <f t="shared" si="5"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="W9">
         <f t="shared" si="5"/>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W10">
         <f t="shared" si="5"/>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W11">
         <f t="shared" si="5"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W12">
         <f t="shared" si="5"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W13">
         <f t="shared" si="5"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W15">
         <f t="shared" si="5"/>
@@ -4484,11 +4484,11 @@
       </c>
       <c r="V17">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="W17">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="27" x14ac:dyDescent="0.35">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="V18">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="W18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4620,11 +4620,11 @@
       </c>
       <c r="V20">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="W20">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W22">
         <f t="shared" si="5"/>
@@ -4834,11 +4834,11 @@
       </c>
       <c r="V23">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="W23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4904,11 +4904,11 @@
       </c>
       <c r="V24">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="W24">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W25">
         <f t="shared" si="5"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W26">
         <f t="shared" si="5"/>
@@ -5118,11 +5118,11 @@
       </c>
       <c r="V27">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="W27">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5188,11 +5188,11 @@
       </c>
       <c r="V28">
         <f>SUMIF(D$4:D$100,U28,E$4:E$100)+SUMIF(G$4:G$100,U28,F$4:F$100)+SUMIF(M$4:M$100,U28,N$4:N$100)+SUMIF(P$4:P$100,U28,O$4:O$100)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W28">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5258,11 +5258,11 @@
       </c>
       <c r="V29">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5328,11 +5328,11 @@
       </c>
       <c r="V30">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="W30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5398,11 +5398,11 @@
       </c>
       <c r="V31">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W31">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5453,11 +5453,11 @@
       </c>
       <c r="V32">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W32">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
@@ -5487,11 +5487,11 @@
       </c>
       <c r="V33">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="W33">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
@@ -5521,11 +5521,11 @@
       </c>
       <c r="V34">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W34">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="27" x14ac:dyDescent="0.35">
@@ -5557,11 +5557,11 @@
       </c>
       <c r="V35">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="W35">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W36">
         <f t="shared" si="5"/>
@@ -5657,11 +5657,11 @@
       </c>
       <c r="V37">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="W37">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="W38">
         <f t="shared" si="5"/>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="W39">
         <f t="shared" si="5"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W40">
         <f t="shared" si="5"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="W41">
         <f t="shared" si="5"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W42">
         <f t="shared" si="5"/>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W43">
         <f t="shared" si="5"/>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W44">
         <f t="shared" si="5"/>
@@ -6225,11 +6225,11 @@
       </c>
       <c r="V45">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W45">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="V46">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="W46">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="22" x14ac:dyDescent="0.2">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W47">
         <f t="shared" si="5"/>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="W48">
         <f t="shared" si="5"/>
@@ -6490,11 +6490,11 @@
       </c>
       <c r="V49">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="W49">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -8230,9 +8230,9 @@
       <c r="R88" s="5"/>
     </row>
     <row r="89" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="str">
+      <c r="A89" s="7">
         <f>IF(E89 &gt; F89, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>79</v>
@@ -8243,8 +8243,12 @@
       <c r="D89" s="14">
         <v>51</v>
       </c>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
+      <c r="E89" s="15">
+        <v>6</v>
+      </c>
+      <c r="F89" s="15">
+        <v>4</v>
+      </c>
       <c r="G89" s="14">
         <v>19</v>
       </c>
@@ -8255,9 +8259,9 @@
         <f t="shared" ref="I89:I100" si="22">IF(F89 &gt; E89, 1, "")</f>
         <v/>
       </c>
-      <c r="J89" s="18" t="str">
+      <c r="J89" s="18">
         <f t="shared" ref="J89:J100" si="23">IF(N89 &gt; O89, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K89" s="21" t="s">
         <v>79</v>
@@ -8268,8 +8272,12 @@
       <c r="M89" s="14">
         <v>52</v>
       </c>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
+      <c r="N89" s="15">
+        <v>7</v>
+      </c>
+      <c r="O89" s="15">
+        <v>3</v>
+      </c>
       <c r="P89" s="14">
         <v>21</v>
       </c>
@@ -8293,8 +8301,12 @@
       <c r="D90" s="14">
         <v>73</v>
       </c>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
+      <c r="E90" s="15">
+        <v>5</v>
+      </c>
+      <c r="F90" s="15">
+        <v>5</v>
+      </c>
       <c r="G90" s="14">
         <v>89</v>
       </c>
@@ -8316,8 +8328,12 @@
       <c r="M90" s="14">
         <v>75</v>
       </c>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
+      <c r="N90" s="15">
+        <v>5</v>
+      </c>
+      <c r="O90" s="15">
+        <v>5</v>
+      </c>
       <c r="P90" s="14">
         <v>92</v>
       </c>
@@ -8330,9 +8346,9 @@
       </c>
     </row>
     <row r="91" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="str">
+      <c r="A91" s="7">
         <f t="shared" si="25"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="14" t="s">
@@ -8341,8 +8357,12 @@
       <c r="D91" s="14">
         <v>1</v>
       </c>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
+      <c r="E91" s="15">
+        <v>8</v>
+      </c>
+      <c r="F91" s="15">
+        <v>2</v>
+      </c>
       <c r="G91" s="14">
         <v>67</v>
       </c>
@@ -8364,17 +8384,21 @@
       <c r="M91" s="14">
         <v>2</v>
       </c>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
+      <c r="N91" s="15">
+        <v>4</v>
+      </c>
+      <c r="O91" s="15">
+        <v>6</v>
+      </c>
       <c r="P91" s="14">
         <v>69</v>
       </c>
       <c r="Q91" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R91" t="str">
+      <c r="R91">
         <f t="shared" si="24"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="22" x14ac:dyDescent="0.2">
@@ -8389,21 +8413,25 @@
       <c r="D92" s="14">
         <v>26</v>
       </c>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
+      <c r="E92" s="15">
+        <v>0</v>
+      </c>
+      <c r="F92" s="15">
+        <v>10</v>
+      </c>
       <c r="G92" s="14">
         <v>43</v>
       </c>
       <c r="H92" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I92" s="7" t="str">
+      <c r="I92" s="7">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J92" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="J92" s="18">
         <f t="shared" si="23"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K92" s="22"/>
       <c r="L92" s="14" t="s">
@@ -8412,8 +8440,12 @@
       <c r="M92" s="14">
         <v>28</v>
       </c>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
+      <c r="N92" s="15">
+        <v>6</v>
+      </c>
+      <c r="O92" s="15">
+        <v>4</v>
+      </c>
       <c r="P92" s="14">
         <v>45</v>
       </c>
@@ -8426,9 +8458,9 @@
       </c>
     </row>
     <row r="93" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="str">
+      <c r="A93" s="7">
         <f t="shared" si="25"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="14" t="s">
@@ -8437,8 +8469,12 @@
       <c r="D93" s="14">
         <v>55</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
+      <c r="E93" s="15">
+        <v>10</v>
+      </c>
+      <c r="F93" s="15">
+        <v>0</v>
+      </c>
       <c r="G93" s="14">
         <v>22</v>
       </c>
@@ -8449,9 +8485,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="J93" s="18" t="str">
+      <c r="J93" s="18">
         <f t="shared" si="23"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K93" s="22"/>
       <c r="L93" s="14" t="s">
@@ -8460,8 +8496,12 @@
       <c r="M93" s="14">
         <v>60</v>
       </c>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
+      <c r="N93" s="15">
+        <v>6</v>
+      </c>
+      <c r="O93" s="15">
+        <v>4</v>
+      </c>
       <c r="P93" s="14">
         <v>25</v>
       </c>
@@ -8485,17 +8525,21 @@
       <c r="D94" s="14">
         <v>78</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
+      <c r="E94" s="15">
+        <v>4</v>
+      </c>
+      <c r="F94" s="15">
+        <v>6</v>
+      </c>
       <c r="G94" s="14">
         <v>94</v>
       </c>
       <c r="H94" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="7" t="str">
+      <c r="I94" s="7">
         <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J94" s="18" t="str">
         <f t="shared" si="23"/>
@@ -8508,23 +8552,27 @@
       <c r="M94" s="14">
         <v>33</v>
       </c>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
+      <c r="N94" s="15">
+        <v>0</v>
+      </c>
+      <c r="O94" s="15">
+        <v>10</v>
+      </c>
       <c r="P94" s="14">
         <v>49</v>
       </c>
       <c r="Q94" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="R94" t="str">
+      <c r="R94">
         <f t="shared" si="24"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="str">
+      <c r="A95" s="7">
         <f t="shared" si="25"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>80</v>
@@ -8535,8 +8583,12 @@
       <c r="D95" s="14">
         <v>3</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
+      <c r="E95" s="15">
+        <v>6</v>
+      </c>
+      <c r="F95" s="15">
+        <v>4</v>
+      </c>
       <c r="G95" s="14">
         <v>72</v>
       </c>
@@ -8547,9 +8599,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="J95" s="18" t="str">
+      <c r="J95" s="18">
         <f t="shared" si="23"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K95" s="28" t="s">
         <v>80</v>
@@ -8560,8 +8612,12 @@
       <c r="M95" s="14">
         <v>59</v>
       </c>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
+      <c r="N95" s="15">
+        <v>7</v>
+      </c>
+      <c r="O95" s="15">
+        <v>3</v>
+      </c>
       <c r="P95" s="14">
         <v>16</v>
       </c>
@@ -8574,9 +8630,9 @@
       </c>
     </row>
     <row r="96" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="str">
+      <c r="A96" s="7">
         <f t="shared" si="25"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="14" t="s">
@@ -8585,8 +8641,12 @@
       <c r="D96" s="14">
         <v>31</v>
       </c>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
+      <c r="E96" s="15">
+        <v>7</v>
+      </c>
+      <c r="F96" s="15">
+        <v>3</v>
+      </c>
       <c r="G96" s="14">
         <v>47</v>
       </c>
@@ -8608,23 +8668,27 @@
       <c r="M96" s="14">
         <v>79</v>
       </c>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
+      <c r="N96" s="15">
+        <v>4</v>
+      </c>
+      <c r="O96" s="15">
+        <v>6</v>
+      </c>
       <c r="P96" s="14">
         <v>88</v>
       </c>
       <c r="Q96" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R96" t="str">
+      <c r="R96">
         <f t="shared" si="24"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="str">
+      <c r="A97" s="7">
         <f t="shared" si="25"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B97" s="22"/>
       <c r="C97" s="14" t="s">
@@ -8633,8 +8697,12 @@
       <c r="D97" s="14">
         <v>57</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
+      <c r="E97" s="15">
+        <v>6</v>
+      </c>
+      <c r="F97" s="15">
+        <v>4</v>
+      </c>
       <c r="G97" s="14">
         <v>14</v>
       </c>
@@ -8656,17 +8724,21 @@
       <c r="M97" s="14">
         <v>10</v>
       </c>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
+      <c r="N97" s="15">
+        <v>4</v>
+      </c>
+      <c r="O97" s="15">
+        <v>6</v>
+      </c>
       <c r="P97" s="14">
         <v>63</v>
       </c>
       <c r="Q97" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R97" t="str">
+      <c r="R97">
         <f t="shared" si="24"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="22" x14ac:dyDescent="0.2">
@@ -8681,17 +8753,21 @@
       <c r="D98" s="14">
         <v>82</v>
       </c>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
+      <c r="E98" s="15">
+        <v>4</v>
+      </c>
+      <c r="F98" s="15">
+        <v>6</v>
+      </c>
       <c r="G98" s="14">
         <v>85</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I98" s="7" t="str">
+      <c r="I98" s="7">
         <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J98" s="18" t="str">
         <f t="shared" si="23"/>
@@ -8704,17 +8780,21 @@
       <c r="M98" s="14">
         <v>37</v>
       </c>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
+      <c r="N98" s="15">
+        <v>0</v>
+      </c>
+      <c r="O98" s="15">
+        <v>10</v>
+      </c>
       <c r="P98" s="14">
         <v>40</v>
       </c>
       <c r="Q98" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="R98" t="str">
+      <c r="R98">
         <f t="shared" si="24"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="22" x14ac:dyDescent="0.2">
@@ -8729,17 +8809,21 @@
       <c r="D99" s="14">
         <v>6</v>
       </c>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
+      <c r="E99" s="15">
+        <v>4</v>
+      </c>
+      <c r="F99" s="15">
+        <v>6</v>
+      </c>
       <c r="G99" s="14">
         <v>65</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I99" s="7" t="str">
+      <c r="I99" s="7">
         <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J99" s="18" t="str">
         <f t="shared" si="23"/>
@@ -8752,23 +8836,27 @@
       <c r="M99" s="14">
         <v>83</v>
       </c>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
+      <c r="N99" s="15">
+        <v>4</v>
+      </c>
+      <c r="O99" s="15">
+        <v>6</v>
+      </c>
       <c r="P99" s="14">
         <v>4</v>
       </c>
       <c r="Q99" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R99" t="str">
+      <c r="R99">
         <f t="shared" si="24"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="22" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="str">
+      <c r="A100" s="7">
         <f>IF(E100 &gt; F100, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="14" t="s">
@@ -8777,8 +8865,12 @@
       <c r="D100" s="14">
         <v>34</v>
       </c>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
+      <c r="E100" s="15">
+        <v>6</v>
+      </c>
+      <c r="F100" s="15">
+        <v>4</v>
+      </c>
       <c r="G100" s="14">
         <v>38</v>
       </c>
@@ -9103,10 +9195,10 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9117,10 +9209,10 @@
         <v>52</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9131,7 +9223,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -9145,21 +9237,21 @@
         <v>63</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <v>2g</v>
+        <v>2c</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -9167,58 +9259,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <v>2c</v>
+        <v>2g</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <v>2c</v>
+        <v>2f</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <v>2f</v>
+        <v>2d</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <v>2d</v>
+        <v>2h</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -9226,27 +9318,27 @@
         <v>2c</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <v>2d</v>
+        <v>2c</v>
       </c>
       <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>33</v>
       </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -9257,38 +9349,38 @@
         <v>34</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <v>2f</v>
+        <v>2a</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <v>2g</v>
+        <v>2a</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -9299,21 +9391,21 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <v>2d</v>
+        <v>2f</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -9321,13 +9413,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <v>2a</v>
+        <v>2f</v>
       </c>
       <c r="B18">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -9335,16 +9427,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <v>2f</v>
+        <v>2d</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -9355,10 +9447,10 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -9369,133 +9461,133 @@
         <v>57</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <v>2e</v>
+        <v>2f</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <v>2f</v>
+        <v>2b</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>2d</v>
+        <v>2g</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <v>2h</v>
+        <v>2a</v>
       </c>
       <c r="B25">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>2b</v>
+        <v>2g</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <v>2h</v>
+        <v>2f</v>
       </c>
       <c r="B27">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <v>2b</v>
+        <v>2h</v>
       </c>
       <c r="B28">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>2f</v>
+        <v>2b</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -9506,69 +9598,69 @@
         <v>2h</v>
       </c>
       <c r="B31">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <v>2a</v>
+        <v>2b</v>
       </c>
       <c r="B32">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>2b</v>
+        <v>2d</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>2a</v>
+        <v>2h</v>
       </c>
       <c r="B34">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>2g</v>
+        <v>2b</v>
       </c>
       <c r="B35">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -9576,13 +9668,13 @@
         <v>2d</v>
       </c>
       <c r="B36">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -9593,7 +9685,7 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -9607,7 +9699,7 @@
         <v>14</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -9621,7 +9713,7 @@
         <v>25</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -9629,30 +9721,30 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <v>2h</v>
+        <v>2e</v>
       </c>
       <c r="B40">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <v>2e</v>
+        <v>2h</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -9663,7 +9755,7 @@
         <v>79</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -9671,55 +9763,55 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <v>2e</v>
+        <v>2d</v>
       </c>
       <c r="B43">
+        <v>37</v>
+      </c>
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="C43">
-        <v>19</v>
-      </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <v>2e</v>
+        <v>2b</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>2h</v>
+        <v>2e</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>2b</v>
+        <v>2c</v>
       </c>
       <c r="B46">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9727,13 +9819,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <v>2c</v>
+        <v>2e</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -9749,8 +9841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8B5130-A9A4-3D41-9E23-ABC295084148}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:K54"/>
+    <sheetView topLeftCell="A60" zoomScale="110" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11269,7 +11361,9 @@
       <c r="D62" s="14">
         <v>50</v>
       </c>
-      <c r="E62" s="15"/>
+      <c r="E62" s="15">
+        <v>5</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="21" t="s">
@@ -11281,7 +11375,9 @@
       <c r="J62" s="14">
         <v>53</v>
       </c>
-      <c r="K62" s="15"/>
+      <c r="K62" s="15">
+        <v>0</v>
+      </c>
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11293,7 +11389,9 @@
       <c r="D63" s="14">
         <v>77</v>
       </c>
-      <c r="E63" s="15"/>
+      <c r="E63" s="15">
+        <v>4</v>
+      </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="22"/>
@@ -11303,7 +11401,9 @@
       <c r="J63" s="14">
         <v>80</v>
       </c>
-      <c r="K63" s="15"/>
+      <c r="K63" s="15">
+        <v>0</v>
+      </c>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11315,7 +11415,9 @@
       <c r="D64" s="14">
         <v>8</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="15">
+        <v>13</v>
+      </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="22"/>
@@ -11325,7 +11427,9 @@
       <c r="J64" s="14">
         <v>11</v>
       </c>
-      <c r="K64" s="15"/>
+      <c r="K64" s="15">
+        <v>1</v>
+      </c>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11337,7 +11441,9 @@
       <c r="D65" s="14">
         <v>36</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="15">
+        <v>3</v>
+      </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="22"/>
@@ -11347,7 +11453,9 @@
       <c r="J65" s="14">
         <v>27</v>
       </c>
-      <c r="K65" s="15"/>
+      <c r="K65" s="15">
+        <v>2</v>
+      </c>
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11359,7 +11467,9 @@
       <c r="D66" s="16">
         <v>17</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="15">
+        <v>11</v>
+      </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="22"/>
@@ -11369,7 +11479,9 @@
       <c r="J66" s="16">
         <v>18</v>
       </c>
-      <c r="K66" s="15"/>
+      <c r="K66" s="15">
+        <v>4</v>
+      </c>
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11381,7 +11493,9 @@
       <c r="D67" s="14">
         <v>86</v>
       </c>
-      <c r="E67" s="15"/>
+      <c r="E67" s="15">
+        <v>2</v>
+      </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="22"/>
@@ -11391,7 +11505,9 @@
       <c r="J67" s="14">
         <v>87</v>
       </c>
-      <c r="K67" s="15"/>
+      <c r="K67" s="15">
+        <v>7</v>
+      </c>
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11403,7 +11519,9 @@
       <c r="D68" s="14">
         <v>68</v>
       </c>
-      <c r="E68" s="15"/>
+      <c r="E68" s="15">
+        <v>22</v>
+      </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="22"/>
@@ -11413,7 +11531,9 @@
       <c r="J68" s="14">
         <v>70</v>
       </c>
-      <c r="K68" s="15"/>
+      <c r="K68" s="15">
+        <v>9</v>
+      </c>
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11425,7 +11545,9 @@
       <c r="D69" s="14">
         <v>48</v>
       </c>
-      <c r="E69" s="15"/>
+      <c r="E69" s="15">
+        <v>0</v>
+      </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="29"/>
@@ -11435,7 +11557,9 @@
       <c r="J69" s="14">
         <v>39</v>
       </c>
-      <c r="K69" s="15"/>
+      <c r="K69" s="15">
+        <v>1</v>
+      </c>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11449,7 +11573,9 @@
       <c r="D70" s="14">
         <v>54</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="E70" s="15">
+        <v>5</v>
+      </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="21" t="s">
@@ -11461,7 +11587,9 @@
       <c r="J70" s="14">
         <v>56</v>
       </c>
-      <c r="K70" s="15"/>
+      <c r="K70" s="15">
+        <v>2</v>
+      </c>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11473,7 +11601,9 @@
       <c r="D71" s="14">
         <v>81</v>
       </c>
-      <c r="E71" s="15"/>
+      <c r="E71" s="15">
+        <v>17</v>
+      </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="22"/>
@@ -11483,7 +11613,9 @@
       <c r="J71" s="14">
         <v>84</v>
       </c>
-      <c r="K71" s="15"/>
+      <c r="K71" s="15">
+        <v>0</v>
+      </c>
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11495,7 +11627,9 @@
       <c r="D72" s="14">
         <v>7</v>
       </c>
-      <c r="E72" s="15"/>
+      <c r="E72" s="15">
+        <v>6</v>
+      </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="22"/>
@@ -11505,7 +11639,9 @@
       <c r="J72" s="14">
         <v>9</v>
       </c>
-      <c r="K72" s="15"/>
+      <c r="K72" s="15">
+        <v>6</v>
+      </c>
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11517,7 +11653,9 @@
       <c r="D73" s="14">
         <v>29</v>
       </c>
-      <c r="E73" s="15"/>
+      <c r="E73" s="15">
+        <v>2</v>
+      </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="22"/>
@@ -11527,7 +11665,9 @@
       <c r="J73" s="14">
         <v>30</v>
       </c>
-      <c r="K73" s="15"/>
+      <c r="K73" s="15">
+        <v>2</v>
+      </c>
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11539,7 +11679,9 @@
       <c r="D74" s="16">
         <v>20</v>
       </c>
-      <c r="E74" s="15"/>
+      <c r="E74" s="15">
+        <v>13</v>
+      </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="22"/>
@@ -11549,7 +11691,9 @@
       <c r="J74" s="16">
         <v>23</v>
       </c>
-      <c r="K74" s="15"/>
+      <c r="K74" s="15">
+        <v>22</v>
+      </c>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11561,7 +11705,9 @@
       <c r="D75" s="14">
         <v>90</v>
       </c>
-      <c r="E75" s="15"/>
+      <c r="E75" s="15">
+        <v>5</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="22"/>
@@ -11571,7 +11717,9 @@
       <c r="J75" s="14">
         <v>91</v>
       </c>
-      <c r="K75" s="15"/>
+      <c r="K75" s="15">
+        <v>1</v>
+      </c>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11583,7 +11731,9 @@
       <c r="D76" s="14">
         <v>71</v>
       </c>
-      <c r="E76" s="15"/>
+      <c r="E76" s="15">
+        <v>22</v>
+      </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="22"/>
@@ -11593,7 +11743,9 @@
       <c r="J76" s="14">
         <v>64</v>
       </c>
-      <c r="K76" s="15"/>
+      <c r="K76" s="15">
+        <v>19</v>
+      </c>
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11605,7 +11757,9 @@
       <c r="D77" s="14">
         <v>41</v>
       </c>
-      <c r="E77" s="15"/>
+      <c r="E77" s="15">
+        <v>12</v>
+      </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="29"/>
@@ -11615,7 +11769,9 @@
       <c r="J77" s="14">
         <v>42</v>
       </c>
-      <c r="K77" s="15"/>
+      <c r="K77" s="15">
+        <v>22</v>
+      </c>
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11629,7 +11785,9 @@
       <c r="D78" s="14">
         <v>62</v>
       </c>
-      <c r="E78" s="15"/>
+      <c r="E78" s="15">
+        <v>11</v>
+      </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="21" t="s">
@@ -11641,7 +11799,9 @@
       <c r="J78" s="14">
         <v>58</v>
       </c>
-      <c r="K78" s="15"/>
+      <c r="K78" s="15">
+        <v>1</v>
+      </c>
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11653,7 +11813,9 @@
       <c r="D79" s="14">
         <v>74</v>
       </c>
-      <c r="E79" s="15"/>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="22"/>
@@ -11663,7 +11825,9 @@
       <c r="J79" s="14">
         <v>76</v>
       </c>
-      <c r="K79" s="15"/>
+      <c r="K79" s="15">
+        <v>4</v>
+      </c>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11675,7 +11839,9 @@
       <c r="D80" s="14">
         <v>5</v>
       </c>
-      <c r="E80" s="15"/>
+      <c r="E80" s="15">
+        <v>22</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="22"/>
@@ -11685,7 +11851,9 @@
       <c r="J80" s="14">
         <v>12</v>
       </c>
-      <c r="K80" s="15"/>
+      <c r="K80" s="15">
+        <v>5</v>
+      </c>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11697,7 +11865,9 @@
       <c r="D81" s="14">
         <v>32</v>
       </c>
-      <c r="E81" s="15"/>
+      <c r="E81" s="15">
+        <v>3</v>
+      </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="22"/>
@@ -11707,7 +11877,9 @@
       <c r="J81" s="14">
         <v>35</v>
       </c>
-      <c r="K81" s="15"/>
+      <c r="K81" s="15">
+        <v>11</v>
+      </c>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11719,7 +11891,9 @@
       <c r="D82" s="16">
         <v>24</v>
       </c>
-      <c r="E82" s="15"/>
+      <c r="E82" s="15">
+        <v>0</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="22"/>
@@ -11729,7 +11903,9 @@
       <c r="J82" s="16">
         <v>15</v>
       </c>
-      <c r="K82" s="15"/>
+      <c r="K82" s="15">
+        <v>1</v>
+      </c>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11741,7 +11917,9 @@
       <c r="D83" s="14">
         <v>93</v>
       </c>
-      <c r="E83" s="15"/>
+      <c r="E83" s="15">
+        <v>22</v>
+      </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="22"/>
@@ -11751,7 +11929,9 @@
       <c r="J83" s="14">
         <v>46</v>
       </c>
-      <c r="K83" s="15"/>
+      <c r="K83" s="15">
+        <v>5</v>
+      </c>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:12" ht="22" x14ac:dyDescent="0.2">
@@ -11763,7 +11943,9 @@
       <c r="D84" s="14">
         <v>66</v>
       </c>
-      <c r="E84" s="15"/>
+      <c r="E84" s="15">
+        <v>1</v>
+      </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="22"/>
@@ -11781,7 +11963,9 @@
       <c r="D85" s="14">
         <v>44</v>
       </c>
-      <c r="E85" s="15"/>
+      <c r="E85" s="15">
+        <v>8</v>
+      </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="29"/>
@@ -11859,17 +12043,17 @@
       </c>
       <c r="C89">
         <f>_xlfn.XLOOKUP(H89,D$62:D$85,E$62:E$85,0)+_xlfn.XLOOKUP(H89,J$62:J$85,K$62:K$85,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E89" s="5" cm="1">
         <f t="array" ref="E89:G89">_xlfn._xlws.SORT(A89:C89,1,-1,TRUE)</f>
         <v>13</v>
       </c>
       <c r="F89" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G89" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="1">
         <v>7</v>
@@ -11891,17 +12075,17 @@
       </c>
       <c r="C90">
         <f t="shared" ref="C90:C134" si="2">_xlfn.XLOOKUP(H90,D$62:D$85,E$62:E$85,0)+_xlfn.XLOOKUP(H90,J$62:J$85,K$62:K$85,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E90" s="5" cm="1">
         <f t="array" ref="E90:G90">_xlfn._xlws.SORT(A90:C90,1,-1,TRUE)</f>
         <v>9</v>
       </c>
       <c r="F90" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G90" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H90" s="1">
         <v>9</v>
@@ -11923,17 +12107,17 @@
       </c>
       <c r="C91">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E91" s="5" cm="1">
         <f t="array" ref="E91:G91">_xlfn._xlws.SORT(A91:C91,1,-1,TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="F91" s="5">
         <v>19</v>
       </c>
-      <c r="F91" s="5">
-        <v>5</v>
-      </c>
       <c r="G91" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H91" s="1">
         <v>5</v>
@@ -11955,7 +12139,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E92" s="5" cm="1">
         <f t="array" ref="E92:G92">_xlfn._xlws.SORT(A92:C92,1,-1,TRUE)</f>
@@ -11965,7 +12149,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H92" s="1">
         <v>12</v>
@@ -11987,17 +12171,17 @@
       </c>
       <c r="C93">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E93" s="5" cm="1">
         <f t="array" ref="E93:G93">_xlfn._xlws.SORT(A93:C93,1,-1,TRUE)</f>
+        <v>13</v>
+      </c>
+      <c r="F93" s="5">
         <v>10</v>
       </c>
-      <c r="F93" s="5">
+      <c r="G93" s="5">
         <v>8</v>
-      </c>
-      <c r="G93" s="5">
-        <v>0</v>
       </c>
       <c r="H93" s="1">
         <v>8</v>
@@ -12019,7 +12203,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="5" cm="1">
         <f t="array" ref="E94:G94">_xlfn._xlws.SORT(A94:C94,1,-1,TRUE)</f>
@@ -12029,7 +12213,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="1">
         <v>11</v>
@@ -12051,7 +12235,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="5" cm="1">
         <f t="array" ref="E95:G95">_xlfn._xlws.SORT(A95:C95,1,-1,TRUE)</f>
@@ -12061,7 +12245,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="1">
         <v>15</v>
@@ -12083,17 +12267,17 @@
       </c>
       <c r="C96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E96" s="5" cm="1">
         <f t="array" ref="E96:G96">_xlfn._xlws.SORT(A96:C96,1,-1,TRUE)</f>
         <v>13</v>
       </c>
       <c r="F96" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="1">
         <v>17</v>
@@ -12115,7 +12299,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E97" s="5" cm="1">
         <f t="array" ref="E97:G97">_xlfn._xlws.SORT(A97:C97,1,-1,TRUE)</f>
@@ -12125,7 +12309,7 @@
         <v>4</v>
       </c>
       <c r="G97" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H97" s="1">
         <v>18</v>
@@ -12147,7 +12331,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E98" s="5" cm="1">
         <f t="array" ref="E98:G98">_xlfn._xlws.SORT(A98:C98,1,-1,TRUE)</f>
@@ -12157,7 +12341,7 @@
         <v>18</v>
       </c>
       <c r="G98" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H98" s="1">
         <v>20</v>
@@ -12179,17 +12363,17 @@
       </c>
       <c r="C99">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E99" s="5" cm="1">
         <f t="array" ref="E99:G99">_xlfn._xlws.SORT(A99:C99,1,-1,TRUE)</f>
         <v>22</v>
       </c>
       <c r="F99">
+        <v>22</v>
+      </c>
+      <c r="G99">
         <v>19</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
       </c>
       <c r="H99" s="1">
         <v>23</v>
@@ -12241,7 +12425,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E101" s="5" cm="1">
         <f t="array" ref="E101:G101">_xlfn._xlws.SORT(A101:C101,1,-1,TRUE)</f>
@@ -12251,7 +12435,7 @@
         <v>14</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" s="1">
         <v>27</v>
@@ -12272,14 +12456,14 @@
       </c>
       <c r="C102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E102" s="5" cm="1">
         <f t="array" ref="E102:G102">_xlfn._xlws.SORT(A102:C102,1,-1,TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -12303,7 +12487,7 @@
       </c>
       <c r="C103">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E103" s="5" cm="1">
         <f t="array" ref="E103:G103">_xlfn._xlws.SORT(A103:C103,1,-1,TRUE)</f>
@@ -12313,7 +12497,7 @@
         <v>4</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" s="1">
         <v>30</v>
@@ -12334,7 +12518,7 @@
       </c>
       <c r="C104">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E104" s="5" cm="1">
         <f t="array" ref="E104:G104">_xlfn._xlws.SORT(A104:C104,1,-1,TRUE)</f>
@@ -12344,7 +12528,7 @@
         <v>4</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104" s="1">
         <v>32</v>
@@ -12365,7 +12549,7 @@
       </c>
       <c r="C105">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E105" s="5" cm="1">
         <f t="array" ref="E105:G105">_xlfn._xlws.SORT(A105:C105,1,-1,TRUE)</f>
@@ -12375,7 +12559,7 @@
         <v>17</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H105" s="1">
         <v>35</v>
@@ -12396,17 +12580,17 @@
       </c>
       <c r="C106">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E106" s="5" cm="1">
         <f t="array" ref="E106:G106">_xlfn._xlws.SORT(A106:C106,1,-1,TRUE)</f>
         <v>6</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="1">
         <v>36</v>
@@ -12427,14 +12611,14 @@
       </c>
       <c r="C107">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="5" cm="1">
         <f t="array" ref="E107:G107">_xlfn._xlws.SORT(A107:C107,1,-1,TRUE)</f>
         <v>1</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -12458,17 +12642,17 @@
       </c>
       <c r="C108">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E108" s="5" cm="1">
         <f t="array" ref="E108:G108">_xlfn._xlws.SORT(A108:C108,1,-1,TRUE)</f>
         <v>22</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H108" s="1">
         <v>41</v>
@@ -12489,14 +12673,14 @@
       </c>
       <c r="C109">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E109" s="5" cm="1">
         <f t="array" ref="E109:G109">_xlfn._xlws.SORT(A109:C109,1,-1,TRUE)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -12520,17 +12704,17 @@
       </c>
       <c r="C110">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E110" s="5" cm="1">
         <f t="array" ref="E110:G110">_xlfn._xlws.SORT(A110:C110,1,-1,TRUE)</f>
         <v>22</v>
       </c>
       <c r="F110">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H110" s="1">
         <v>44</v>
@@ -12551,7 +12735,7 @@
       </c>
       <c r="C111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E111" s="5" cm="1">
         <f t="array" ref="E111:G111">_xlfn._xlws.SORT(A111:C111,1,-1,TRUE)</f>
@@ -12561,7 +12745,7 @@
         <v>8</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H111" s="1">
         <v>46</v>
@@ -12613,17 +12797,17 @@
       </c>
       <c r="C113">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E113" s="5" cm="1">
         <f t="array" ref="E113:G113">_xlfn._xlws.SORT(A113:C113,1,-1,TRUE)</f>
         <v>6</v>
       </c>
       <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="G113">
         <v>3</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
       </c>
       <c r="H113" s="1">
         <v>50</v>
@@ -12675,7 +12859,7 @@
       </c>
       <c r="C115">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E115" s="5" cm="1">
         <f t="array" ref="E115:G115">_xlfn._xlws.SORT(A115:C115,1,-1,TRUE)</f>
@@ -12685,7 +12869,7 @@
         <v>6</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H115" s="1">
         <v>54</v>
@@ -12706,7 +12890,7 @@
       </c>
       <c r="C116">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E116" s="5" cm="1">
         <f t="array" ref="E116:G116">_xlfn._xlws.SORT(A116:C116,1,-1,TRUE)</f>
@@ -12716,7 +12900,7 @@
         <v>3</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H116" s="1">
         <v>56</v>
@@ -12737,17 +12921,17 @@
       </c>
       <c r="C117">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E117" s="5" cm="1">
         <f t="array" ref="E117:G117">_xlfn._xlws.SORT(A117:C117,1,-1,TRUE)</f>
+        <v>11</v>
+      </c>
+      <c r="F117">
         <v>10</v>
       </c>
-      <c r="F117">
-        <v>4</v>
-      </c>
       <c r="G117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H117" s="1">
         <v>62</v>
@@ -12768,7 +12952,7 @@
       </c>
       <c r="C118">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="5" cm="1">
         <f t="array" ref="E118:G118">_xlfn._xlws.SORT(A118:C118,1,-1,TRUE)</f>
@@ -12778,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="1">
         <v>58</v>
@@ -12799,17 +12983,17 @@
       </c>
       <c r="C119">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E119" s="5" cm="1">
         <f t="array" ref="E119:G119">_xlfn._xlws.SORT(A119:C119,1,-1,TRUE)</f>
+        <v>19</v>
+      </c>
+      <c r="F119">
         <v>18</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>14</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
       </c>
       <c r="H119" s="1">
         <v>64</v>
@@ -12830,7 +13014,7 @@
       </c>
       <c r="C120">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" s="5" cm="1">
         <f t="array" ref="E120:G120">_xlfn._xlws.SORT(A120:C120,1,-1,TRUE)</f>
@@ -12840,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" s="1">
         <v>66</v>
@@ -12861,7 +13045,7 @@
       </c>
       <c r="C121">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E121" s="5" cm="1">
         <f t="array" ref="E121:G121">_xlfn._xlws.SORT(A121:C121,1,-1,TRUE)</f>
@@ -12871,7 +13055,7 @@
         <v>22</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H121" s="1">
         <v>68</v>
@@ -12892,17 +13076,17 @@
       </c>
       <c r="C122">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E122" s="5" cm="1">
         <f t="array" ref="E122:G122">_xlfn._xlws.SORT(A122:C122,1,-1,TRUE)</f>
         <v>9</v>
       </c>
       <c r="F122">
+        <v>9</v>
+      </c>
+      <c r="G122">
         <v>2</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
       </c>
       <c r="H122" s="1">
         <v>70</v>
@@ -12923,17 +13107,17 @@
       </c>
       <c r="C123">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E123" s="5" cm="1">
         <f t="array" ref="E123:G123">_xlfn._xlws.SORT(A123:C123,1,-1,TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="F123">
         <v>17</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>13</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
       </c>
       <c r="H123" s="1">
         <v>71</v>
@@ -12954,14 +13138,14 @@
       </c>
       <c r="C124">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="5" cm="1">
         <f t="array" ref="E124:G124">_xlfn._xlws.SORT(A124:C124,1,-1,TRUE)</f>
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -12985,7 +13169,7 @@
       </c>
       <c r="C125">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E125" s="5" cm="1">
         <f t="array" ref="E125:G125">_xlfn._xlws.SORT(A125:C125,1,-1,TRUE)</f>
@@ -12995,7 +13179,7 @@
         <v>8</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H125" s="1">
         <v>76</v>
@@ -13016,17 +13200,17 @@
       </c>
       <c r="C126">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E126" s="5" cm="1">
         <f t="array" ref="E126:G126">_xlfn._xlws.SORT(A126:C126,1,-1,TRUE)</f>
         <v>13</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="1">
         <v>77</v>
@@ -13078,14 +13262,14 @@
       </c>
       <c r="C128">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E128" s="5" cm="1">
         <f t="array" ref="E128:G128">_xlfn._xlws.SORT(A128:C128,1,-1,TRUE)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -13140,14 +13324,14 @@
       </c>
       <c r="C130">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E130" s="5" cm="1">
         <f t="array" ref="E130:G130">_xlfn._xlws.SORT(A130:C130,1,-1,TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -13171,17 +13355,17 @@
       </c>
       <c r="C131">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E131" s="5" cm="1">
         <f t="array" ref="E131:G131">_xlfn._xlws.SORT(A131:C131,1,-1,TRUE)</f>
         <v>10</v>
       </c>
       <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
         <v>3</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
       </c>
       <c r="H131" s="1">
         <v>87</v>
@@ -13202,14 +13386,14 @@
       </c>
       <c r="C132">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E132" s="5" cm="1">
         <f t="array" ref="E132:G132">_xlfn._xlws.SORT(A132:C132,1,-1,TRUE)</f>
         <v>8</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -13233,7 +13417,7 @@
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" s="5" cm="1">
         <f t="array" ref="E133:G133">_xlfn._xlws.SORT(A133:C133,1,-1,TRUE)</f>
@@ -13243,7 +13427,7 @@
         <v>3</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="1">
         <v>91</v>
@@ -13264,17 +13448,17 @@
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E134" s="5" cm="1">
         <f t="array" ref="E134:G134">_xlfn._xlws.SORT(A134:C134,1,-1,TRUE)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F134">
         <v>14</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H134" s="1">
         <v>93</v>
@@ -13363,7 +13547,7 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>68</v>
@@ -13377,10 +13561,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="1">
+        <v>22</v>
+      </c>
+      <c r="C3">
         <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
       <c r="D3">
         <v>23</v>
@@ -13394,16 +13578,16 @@
         <v>22</v>
       </c>
       <c r="B4" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E4" t="str">
-        <v>2d</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -13411,16 +13595,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E5" t="str">
-        <v>2h</v>
+        <v>2g</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -13428,95 +13612,95 @@
         <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E6" t="str">
-        <v>2h</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E7" t="str">
-        <v>2d</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E8" t="str">
-        <v>2c</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E9" t="str">
-        <v>2c</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E10" t="str">
-        <v>2e</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11">
         <v>14</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
       </c>
       <c r="D11">
         <v>64</v>
@@ -13527,70 +13711,70 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E12" t="str">
-        <v>2g</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E13" t="str">
-        <v>2f</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>18</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E14" t="str">
-        <v>2c</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E15" t="str">
-        <v>2e</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -13598,47 +13782,47 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E16" t="str">
-        <v>2b</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E17" t="str">
-        <v>2f</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="str">
         <v>2c</v>
@@ -13646,47 +13830,47 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E19" t="str">
-        <v>2h</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E20" t="str">
-        <v>2b</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
       <c r="C21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>62</v>
@@ -13700,16 +13884,16 @@
         <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E22" t="str">
-        <v>2a</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -13717,50 +13901,50 @@
         <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E23" t="str">
-        <v>2f</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E24" t="str">
-        <v>2a</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E25" s="17" t="str">
-        <v>2c</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -13768,16 +13952,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E26" t="str">
-        <v>2d</v>
+        <v>2g</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -13785,13 +13969,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="str">
         <v>2c</v>
@@ -13802,254 +13986,254 @@
         <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E28" t="str">
-        <v>2g</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E29" t="str">
-        <v>2h</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E30" s="17" t="str">
-        <v>2f</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E31" t="str">
-        <v>2e</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E32" t="str">
-        <v>2g</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E33" t="str">
-        <v>2a</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E34" t="str">
-        <v>2d</v>
+        <v>2g</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E35" t="str">
-        <v>2d</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E36" t="str">
-        <v>2a</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E37" t="str">
-        <v>2e</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E38" t="str">
-        <v>2b</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E39" t="str">
-        <v>2a</v>
+        <v>2e</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E40" t="str">
-        <v>2d</v>
+        <v>2a</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E41" t="str">
-        <v>2h</v>
+        <v>2d</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E42" t="str">
-        <v>2h</v>
+        <v>2f</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -14057,16 +14241,16 @@
         <v>1</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E43" t="str">
-        <v>2b</v>
+        <v>2h</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -14074,13 +14258,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E44" t="str">
         <v>2b</v>
@@ -14097,10 +14281,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E45" t="str">
-        <v>2f</v>
+        <v>2b</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
